--- a/s_d/麻吉3月.xlsx
+++ b/s_d/麻吉3月.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王鹏远\Desktop\Electronic\s_d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A453772-5FB8-4BE1-9B5C-D9CAB363DA28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA08A6D-CB0F-47B5-A5D6-42D1CC57396B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.1" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,9 @@
     <sheet name="3.19" sheetId="19" r:id="rId19"/>
     <sheet name="3.20" sheetId="20" r:id="rId20"/>
     <sheet name="3.21" sheetId="21" r:id="rId21"/>
+    <sheet name="3.22" sheetId="22" r:id="rId22"/>
+    <sheet name="3.23" sheetId="23" r:id="rId23"/>
+    <sheet name="3.24" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4258" uniqueCount="1613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4720" uniqueCount="1819">
   <si>
     <t>202003012033161903718</t>
   </si>
@@ -4887,13 +4890,631 @@
   </si>
   <si>
     <t>2020-03-21 19:24</t>
+  </si>
+  <si>
+    <t>202003221706281119455</t>
+  </si>
+  <si>
+    <t>2020-03-22 17:06</t>
+  </si>
+  <si>
+    <t>202003221706361891020</t>
+  </si>
+  <si>
+    <t>202003221706431915170</t>
+  </si>
+  <si>
+    <t>202003221706521813602</t>
+  </si>
+  <si>
+    <t>202003221707001501907</t>
+  </si>
+  <si>
+    <t>2020-03-22 17:07</t>
+  </si>
+  <si>
+    <t>202003221550181206562</t>
+  </si>
+  <si>
+    <t>2020-03-22 15:50</t>
+  </si>
+  <si>
+    <t>202003221549431206100</t>
+  </si>
+  <si>
+    <t>2020-03-22 15:49</t>
+  </si>
+  <si>
+    <t>202003221549331925957</t>
+  </si>
+  <si>
+    <t>202003221521171503629</t>
+  </si>
+  <si>
+    <t>2020-03-22 15:21</t>
+  </si>
+  <si>
+    <t>202003221531351988328</t>
+  </si>
+  <si>
+    <t>2020-03-22 15:31</t>
+  </si>
+  <si>
+    <t>202003221549241366173</t>
+  </si>
+  <si>
+    <t>202003221521251280012</t>
+  </si>
+  <si>
+    <t>202003221531441990503</t>
+  </si>
+  <si>
+    <t>202003221454311739982</t>
+  </si>
+  <si>
+    <t>2020-03-22 14:54</t>
+  </si>
+  <si>
+    <t>202003221513251979208</t>
+  </si>
+  <si>
+    <t>2020-03-22 15:13</t>
+  </si>
+  <si>
+    <t>202003221513341607063</t>
+  </si>
+  <si>
+    <t>202003221534051200015</t>
+  </si>
+  <si>
+    <t>2020-03-22 15:34</t>
+  </si>
+  <si>
+    <t>202003221513421900820</t>
+  </si>
+  <si>
+    <t>202003221533241808498</t>
+  </si>
+  <si>
+    <t>2020-03-22 15:33</t>
+  </si>
+  <si>
+    <t>202003221513511118022</t>
+  </si>
+  <si>
+    <t>202003221531541267176</t>
+  </si>
+  <si>
+    <t>202003221513581576621</t>
+  </si>
+  <si>
+    <t>2020-03-22 15:14</t>
+  </si>
+  <si>
+    <t>202003221532051718308</t>
+  </si>
+  <si>
+    <t>2020-03-22 15:32</t>
+  </si>
+  <si>
+    <t>202003221522001657824</t>
+  </si>
+  <si>
+    <t>2020-03-22 15:22</t>
+  </si>
+  <si>
+    <t>202003221532291623348</t>
+  </si>
+  <si>
+    <t>202003221521351397536</t>
+  </si>
+  <si>
+    <t>202003221534221967552</t>
+  </si>
+  <si>
+    <t>202003221514131328078</t>
+  </si>
+  <si>
+    <t>202003221521451341826</t>
+  </si>
+  <si>
+    <t>202003221532161396897</t>
+  </si>
+  <si>
+    <t>202003221550361947682</t>
+  </si>
+  <si>
+    <t>202003221514391888374</t>
+  </si>
+  <si>
+    <t>202003221550001436098</t>
+  </si>
+  <si>
+    <t>202003221441141693850</t>
+  </si>
+  <si>
+    <t>2020-03-22 14:41</t>
+  </si>
+  <si>
+    <t>202003221533361332652</t>
+  </si>
+  <si>
+    <t>202003221441231338356</t>
+  </si>
+  <si>
+    <t>202003221534411688839</t>
+  </si>
+  <si>
+    <t>202003221452551677561</t>
+  </si>
+  <si>
+    <t>2020-03-22 14:52</t>
+  </si>
+  <si>
+    <t>202003221441311928220</t>
+  </si>
+  <si>
+    <t>202003221453051815563</t>
+  </si>
+  <si>
+    <t>2020-03-22 14:53</t>
+  </si>
+  <si>
+    <t>202003221441401377682</t>
+  </si>
+  <si>
+    <t>202003221453131130403</t>
+  </si>
+  <si>
+    <t>202003221453231840819</t>
+  </si>
+  <si>
+    <t>202003221453311470298</t>
+  </si>
+  <si>
+    <t>202003221433311791818</t>
+  </si>
+  <si>
+    <t>2020-03-22 14:33</t>
+  </si>
+  <si>
+    <t>202003221514271541586</t>
+  </si>
+  <si>
+    <t>202003221432051945729</t>
+  </si>
+  <si>
+    <t>2020-03-22 14:32</t>
+  </si>
+  <si>
+    <t>202003221432141115557</t>
+  </si>
+  <si>
+    <t>202003221432231968326</t>
+  </si>
+  <si>
+    <t>202003221432321351381</t>
+  </si>
+  <si>
+    <t>202003221432431880766</t>
+  </si>
+  <si>
+    <t>202003221432561103471</t>
+  </si>
+  <si>
+    <t>202003221013521850542</t>
+  </si>
+  <si>
+    <t>2020-03-22 10:13</t>
+  </si>
+  <si>
+    <t>202003221013321715273</t>
+  </si>
+  <si>
+    <t>202003221712541584196</t>
+  </si>
+  <si>
+    <t>2020-03-22 17:12</t>
+  </si>
+  <si>
+    <t>202003221713031680457</t>
+  </si>
+  <si>
+    <t>2020-03-22 17:13</t>
+  </si>
+  <si>
+    <t>202003221713131212169</t>
+  </si>
+  <si>
+    <t>202003221713231474035</t>
+  </si>
+  <si>
+    <t>202003221713321747180</t>
+  </si>
+  <si>
+    <t>202003221720511878692</t>
+  </si>
+  <si>
+    <t>2020-03-22 17:20</t>
+  </si>
+  <si>
+    <t>202003221721021738803</t>
+  </si>
+  <si>
+    <t>2020-03-22 17:21</t>
+  </si>
+  <si>
+    <t>202003221721131536686</t>
+  </si>
+  <si>
+    <t>202003221721221604235</t>
+  </si>
+  <si>
+    <t>202003221750261684360</t>
+  </si>
+  <si>
+    <t>2020-03-22 17:50</t>
+  </si>
+  <si>
+    <t>202003221749491403342</t>
+  </si>
+  <si>
+    <t>2020-03-22 17:49</t>
+  </si>
+  <si>
+    <t>202003221749581467531</t>
+  </si>
+  <si>
+    <t>202003221742161650907</t>
+  </si>
+  <si>
+    <t>2020-03-22 17:42</t>
+  </si>
+  <si>
+    <t>202003221743041502312</t>
+  </si>
+  <si>
+    <t>2020-03-22 17:43</t>
+  </si>
+  <si>
+    <t>202003221742301703739</t>
+  </si>
+  <si>
+    <t>202003221722061195414</t>
+  </si>
+  <si>
+    <t>2020-03-22 17:22</t>
+  </si>
+  <si>
+    <t>202003221742401667588</t>
+  </si>
+  <si>
+    <t>202003221743141181114</t>
+  </si>
+  <si>
+    <t>202003221742521469700</t>
+  </si>
+  <si>
+    <t>202003241913121116567</t>
+  </si>
+  <si>
+    <t>2020-03-24 19:13</t>
+  </si>
+  <si>
+    <t>202003241912561317836</t>
+  </si>
+  <si>
+    <t>202003241912421846627</t>
+  </si>
+  <si>
+    <t>2020-03-24 19:12</t>
+  </si>
+  <si>
+    <t>202003241639381426586</t>
+  </si>
+  <si>
+    <t>2020-03-24 16:39</t>
+  </si>
+  <si>
+    <t>202003241639181744879</t>
+  </si>
+  <si>
+    <t>202003241638491840162</t>
+  </si>
+  <si>
+    <t>2020-03-24 16:38</t>
+  </si>
+  <si>
+    <t>202003241638091437217</t>
+  </si>
+  <si>
+    <t>202003241637521173404</t>
+  </si>
+  <si>
+    <t>2020-03-24 16:37</t>
+  </si>
+  <si>
+    <t>202003241637321547476</t>
+  </si>
+  <si>
+    <t>202003241637181207403</t>
+  </si>
+  <si>
+    <t>202003241636391522338</t>
+  </si>
+  <si>
+    <t>2020-03-24 16:36</t>
+  </si>
+  <si>
+    <t>202003241501231293451</t>
+  </si>
+  <si>
+    <t>2020-03-24 15:01</t>
+  </si>
+  <si>
+    <t>202003241500581899825</t>
+  </si>
+  <si>
+    <t>202003241500341996074</t>
+  </si>
+  <si>
+    <t>2020-03-24 15:00</t>
+  </si>
+  <si>
+    <t>202003241500141239045</t>
+  </si>
+  <si>
+    <t>202003241459581250900</t>
+  </si>
+  <si>
+    <t>202003241459411283003</t>
+  </si>
+  <si>
+    <t>2020-03-24 14:59</t>
+  </si>
+  <si>
+    <t>202003241459161789457</t>
+  </si>
+  <si>
+    <t>202003241458561219392</t>
+  </si>
+  <si>
+    <t>202003241036481948655</t>
+  </si>
+  <si>
+    <t>2020-03-24 10:36</t>
+  </si>
+  <si>
+    <t>202003241030291657192</t>
+  </si>
+  <si>
+    <t>2020-03-24 10:30</t>
+  </si>
+  <si>
+    <t>202003241030131603224</t>
+  </si>
+  <si>
+    <t>202003241029551346660</t>
+  </si>
+  <si>
+    <t>202003241029341259567</t>
+  </si>
+  <si>
+    <t>2020-03-24 10:29</t>
+  </si>
+  <si>
+    <t>202003241029161216485</t>
+  </si>
+  <si>
+    <t>202003240959281964019</t>
+  </si>
+  <si>
+    <t>2020-03-24 09:59</t>
+  </si>
+  <si>
+    <t>202003240959051897185</t>
+  </si>
+  <si>
+    <t>202003231947101581350</t>
+  </si>
+  <si>
+    <t>2020-03-23 19:47</t>
+  </si>
+  <si>
+    <t>202003232001251813825</t>
+  </si>
+  <si>
+    <t>2020-03-23 20:01</t>
+  </si>
+  <si>
+    <t>202003231947181359248</t>
+  </si>
+  <si>
+    <t>202003231947261783977</t>
+  </si>
+  <si>
+    <t>202003232002191113338</t>
+  </si>
+  <si>
+    <t>2020-03-23 20:02</t>
+  </si>
+  <si>
+    <t>202003231929231800563</t>
+  </si>
+  <si>
+    <t>2020-03-23 19:29</t>
+  </si>
+  <si>
+    <t>202003231947341502973</t>
+  </si>
+  <si>
+    <t>202003231929161835459</t>
+  </si>
+  <si>
+    <t>202003231915371672153</t>
+  </si>
+  <si>
+    <t>2020-03-23 19:15</t>
+  </si>
+  <si>
+    <t>202003231928411507483</t>
+  </si>
+  <si>
+    <t>2020-03-23 19:28</t>
+  </si>
+  <si>
+    <t>202003231947441694233</t>
+  </si>
+  <si>
+    <t>202003231915461622881</t>
+  </si>
+  <si>
+    <t>202003231928491565175</t>
+  </si>
+  <si>
+    <t>202003231915241221297</t>
+  </si>
+  <si>
+    <t>202003231928571472619</t>
+  </si>
+  <si>
+    <t>202003231947541746849</t>
+  </si>
+  <si>
+    <t>202003231915031736883</t>
+  </si>
+  <si>
+    <t>202003231948041413286</t>
+  </si>
+  <si>
+    <t>2020-03-23 19:48</t>
+  </si>
+  <si>
+    <t>202003231929451139752</t>
+  </si>
+  <si>
+    <t>202003231915161405835</t>
+  </si>
+  <si>
+    <t>202003231737051596813</t>
+  </si>
+  <si>
+    <t>2020-03-23 17:37</t>
+  </si>
+  <si>
+    <t>202003231736561877185</t>
+  </si>
+  <si>
+    <t>202003231736311797107</t>
+  </si>
+  <si>
+    <t>2020-03-23 17:36</t>
+  </si>
+  <si>
+    <t>202003231736371906769</t>
+  </si>
+  <si>
+    <t>202003231725271442170</t>
+  </si>
+  <si>
+    <t>2020-03-23 17:25</t>
+  </si>
+  <si>
+    <t>202003231725091938586</t>
+  </si>
+  <si>
+    <t>202003231724471199414</t>
+  </si>
+  <si>
+    <t>2020-03-23 17:24</t>
+  </si>
+  <si>
+    <t>202003231724281324838</t>
+  </si>
+  <si>
+    <t>202003231724091576233</t>
+  </si>
+  <si>
+    <t>202003231736121401787</t>
+  </si>
+  <si>
+    <t>202003231654151865742</t>
+  </si>
+  <si>
+    <t>2020-03-23 16:54</t>
+  </si>
+  <si>
+    <t>202003231653411868584</t>
+  </si>
+  <si>
+    <t>2020-03-23 16:53</t>
+  </si>
+  <si>
+    <t>202003231653211847274</t>
+  </si>
+  <si>
+    <t>202003231652581303335</t>
+  </si>
+  <si>
+    <t>202003231652371617892</t>
+  </si>
+  <si>
+    <t>2020-03-23 16:52</t>
+  </si>
+  <si>
+    <t>202003231652141329381</t>
+  </si>
+  <si>
+    <t>202003231651571592887</t>
+  </si>
+  <si>
+    <t>202003231651401962183</t>
+  </si>
+  <si>
+    <t>2020-03-23 16:51</t>
+  </si>
+  <si>
+    <t>202003231651251252382</t>
+  </si>
+  <si>
+    <t>202003231651091605750</t>
+  </si>
+  <si>
+    <t>202003231650551960182</t>
+  </si>
+  <si>
+    <t>2020-03-23 16:50</t>
+  </si>
+  <si>
+    <t>202003231650391239167</t>
+  </si>
+  <si>
+    <t>202003231521061381635</t>
+  </si>
+  <si>
+    <t>2020-03-23 15:21</t>
+  </si>
+  <si>
+    <t>202003231520471237695</t>
+  </si>
+  <si>
+    <t>2020-03-23 15:20</t>
+  </si>
+  <si>
+    <t>202003231520271660550</t>
+  </si>
+  <si>
+    <t>202003231520121122902</t>
+  </si>
+  <si>
+    <t>202003231519571263832</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4929,6 +5550,17 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -4986,7 +5618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5009,6 +5641,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -21305,8 +21938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4160BBB-8821-4F3D-923F-DCDC96D6D221}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -22483,6 +23116,4031 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AD3EDE-B92E-467D-951B-A7BAB8774334}">
+  <dimension ref="A1:O73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10">
+        <v>44858</v>
+      </c>
+      <c r="B1" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D1" s="10">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10">
+        <v>365</v>
+      </c>
+      <c r="F1" s="10">
+        <v>365</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>44852</v>
+      </c>
+      <c r="B2" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10">
+        <v>836</v>
+      </c>
+      <c r="F2" s="10">
+        <v>836</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>1702</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2">
+        <v>28000</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>44850</v>
+      </c>
+      <c r="B3" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10">
+        <v>205</v>
+      </c>
+      <c r="F3" s="10">
+        <v>205</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>1700</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>44848</v>
+      </c>
+      <c r="B4" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>239</v>
+      </c>
+      <c r="F4" s="10">
+        <v>239</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>1705</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="4">
+        <f>SUM(E:E)</f>
+        <v>28178.6</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>44847</v>
+      </c>
+      <c r="B5" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10">
+        <v>158</v>
+      </c>
+      <c r="F5" s="10">
+        <v>158</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="5">
+        <f>M2+M3-O3-M4</f>
+        <v>-178.59999999999854</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>44846</v>
+      </c>
+      <c r="B6" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10">
+        <v>448</v>
+      </c>
+      <c r="F6" s="10">
+        <v>448</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>1705</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="3">
+        <v>66.459999999999994</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>44845</v>
+      </c>
+      <c r="B7" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2</v>
+      </c>
+      <c r="E7" s="10">
+        <v>318</v>
+      </c>
+      <c r="F7" s="10">
+        <v>318</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>1710</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="6">
+        <f>M5+M6</f>
+        <v>-112.13999999999855</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>44844</v>
+      </c>
+      <c r="B8" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>285</v>
+      </c>
+      <c r="F8" s="10">
+        <v>285</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>44843</v>
+      </c>
+      <c r="B9" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10">
+        <v>885</v>
+      </c>
+      <c r="F9" s="10">
+        <v>885</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>44842</v>
+      </c>
+      <c r="B10" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10">
+        <v>545</v>
+      </c>
+      <c r="F10" s="10">
+        <v>545</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>44841</v>
+      </c>
+      <c r="B11" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10">
+        <v>169.9</v>
+      </c>
+      <c r="F11" s="10">
+        <v>169.9</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>44840</v>
+      </c>
+      <c r="B12" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2</v>
+      </c>
+      <c r="E12" s="10">
+        <v>233</v>
+      </c>
+      <c r="F12" s="10">
+        <v>233</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>44839</v>
+      </c>
+      <c r="B13" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2</v>
+      </c>
+      <c r="E13" s="10">
+        <v>933</v>
+      </c>
+      <c r="F13" s="10">
+        <v>933</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>44838</v>
+      </c>
+      <c r="B14" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2</v>
+      </c>
+      <c r="E14" s="10">
+        <v>758</v>
+      </c>
+      <c r="F14" s="10">
+        <v>758</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>44837</v>
+      </c>
+      <c r="B15" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D15" s="10">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10">
+        <v>201</v>
+      </c>
+      <c r="F15" s="10">
+        <v>201</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>44836</v>
+      </c>
+      <c r="B16" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2</v>
+      </c>
+      <c r="E16" s="10">
+        <v>824</v>
+      </c>
+      <c r="F16" s="10">
+        <v>824</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>44835</v>
+      </c>
+      <c r="B17" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
+        <v>172</v>
+      </c>
+      <c r="F17" s="10">
+        <v>172</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>44834</v>
+      </c>
+      <c r="B18" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2</v>
+      </c>
+      <c r="E18" s="10">
+        <v>534</v>
+      </c>
+      <c r="F18" s="10">
+        <v>534</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>44833</v>
+      </c>
+      <c r="B19" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10">
+        <v>146</v>
+      </c>
+      <c r="F19" s="10">
+        <v>146</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>44832</v>
+      </c>
+      <c r="B20" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2</v>
+      </c>
+      <c r="E20" s="10">
+        <v>706</v>
+      </c>
+      <c r="F20" s="10">
+        <v>706</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>44831</v>
+      </c>
+      <c r="B21" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D21" s="10">
+        <v>2</v>
+      </c>
+      <c r="E21" s="10">
+        <v>55</v>
+      </c>
+      <c r="F21" s="10">
+        <v>55</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>44830</v>
+      </c>
+      <c r="B22" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D22" s="10">
+        <v>2</v>
+      </c>
+      <c r="E22" s="10">
+        <v>697</v>
+      </c>
+      <c r="F22" s="10">
+        <v>697</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>44828</v>
+      </c>
+      <c r="B23" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2</v>
+      </c>
+      <c r="E23" s="10">
+        <v>217</v>
+      </c>
+      <c r="F23" s="10">
+        <v>217</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>44827</v>
+      </c>
+      <c r="B24" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D24" s="10">
+        <v>2</v>
+      </c>
+      <c r="E24" s="10">
+        <v>236</v>
+      </c>
+      <c r="F24" s="10">
+        <v>236</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>44816</v>
+      </c>
+      <c r="B25" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D25" s="10">
+        <v>2</v>
+      </c>
+      <c r="E25" s="10">
+        <v>249</v>
+      </c>
+      <c r="F25" s="10">
+        <v>249</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>44814</v>
+      </c>
+      <c r="B26" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10">
+        <v>668</v>
+      </c>
+      <c r="F26" s="10">
+        <v>668</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>44811</v>
+      </c>
+      <c r="B27" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D27" s="10">
+        <v>2</v>
+      </c>
+      <c r="E27" s="10">
+        <v>130</v>
+      </c>
+      <c r="F27" s="10">
+        <v>130</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>44810</v>
+      </c>
+      <c r="B28" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D28" s="10">
+        <v>2</v>
+      </c>
+      <c r="E28" s="10">
+        <v>148</v>
+      </c>
+      <c r="F28" s="10">
+        <v>148</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>44809</v>
+      </c>
+      <c r="B29" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D29" s="10">
+        <v>2</v>
+      </c>
+      <c r="E29" s="10">
+        <v>400</v>
+      </c>
+      <c r="F29" s="10">
+        <v>400</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>44808</v>
+      </c>
+      <c r="B30" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D30" s="10">
+        <v>2</v>
+      </c>
+      <c r="E30" s="10">
+        <v>123</v>
+      </c>
+      <c r="F30" s="10">
+        <v>123</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>44807</v>
+      </c>
+      <c r="B31" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10">
+        <v>300</v>
+      </c>
+      <c r="F31" s="10">
+        <v>300</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>44806</v>
+      </c>
+      <c r="B32" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D32" s="10">
+        <v>2</v>
+      </c>
+      <c r="E32" s="10">
+        <v>153</v>
+      </c>
+      <c r="F32" s="10">
+        <v>153</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>44805</v>
+      </c>
+      <c r="B33" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D33" s="10">
+        <v>2</v>
+      </c>
+      <c r="E33" s="10">
+        <v>335</v>
+      </c>
+      <c r="F33" s="10">
+        <v>335</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>44804</v>
+      </c>
+      <c r="B34" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D34" s="10">
+        <v>2</v>
+      </c>
+      <c r="E34" s="10">
+        <v>133</v>
+      </c>
+      <c r="F34" s="10">
+        <v>133</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>44803</v>
+      </c>
+      <c r="B35" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D35" s="10">
+        <v>2</v>
+      </c>
+      <c r="E35" s="10">
+        <v>144</v>
+      </c>
+      <c r="F35" s="10">
+        <v>144</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>44802</v>
+      </c>
+      <c r="B36" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10">
+        <v>99</v>
+      </c>
+      <c r="F36" s="10">
+        <v>99</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>44801</v>
+      </c>
+      <c r="B37" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D37" s="10">
+        <v>2</v>
+      </c>
+      <c r="E37" s="10">
+        <v>249</v>
+      </c>
+      <c r="F37" s="10">
+        <v>249</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>44800</v>
+      </c>
+      <c r="B38" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D38" s="10">
+        <v>2</v>
+      </c>
+      <c r="E38" s="10">
+        <v>158</v>
+      </c>
+      <c r="F38" s="10">
+        <v>158</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>44799</v>
+      </c>
+      <c r="B39" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D39" s="10">
+        <v>2</v>
+      </c>
+      <c r="E39" s="10">
+        <v>558</v>
+      </c>
+      <c r="F39" s="10">
+        <v>558</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>44798</v>
+      </c>
+      <c r="B40" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D40" s="10">
+        <v>2</v>
+      </c>
+      <c r="E40" s="10">
+        <v>188</v>
+      </c>
+      <c r="F40" s="10">
+        <v>188</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>44797</v>
+      </c>
+      <c r="B41" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D41" s="10">
+        <v>2</v>
+      </c>
+      <c r="E41" s="10">
+        <v>835</v>
+      </c>
+      <c r="F41" s="10">
+        <v>835</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>44795</v>
+      </c>
+      <c r="B42" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D42" s="10">
+        <v>2</v>
+      </c>
+      <c r="E42" s="10">
+        <v>399</v>
+      </c>
+      <c r="F42" s="10">
+        <v>399</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>44794</v>
+      </c>
+      <c r="B43" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D43" s="10">
+        <v>2</v>
+      </c>
+      <c r="E43" s="10">
+        <v>580</v>
+      </c>
+      <c r="F43" s="10">
+        <v>580</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>44793</v>
+      </c>
+      <c r="B44" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D44" s="10">
+        <v>2</v>
+      </c>
+      <c r="E44" s="10">
+        <v>205</v>
+      </c>
+      <c r="F44" s="10">
+        <v>205</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>44792</v>
+      </c>
+      <c r="B45" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D45" s="10">
+        <v>2</v>
+      </c>
+      <c r="E45" s="10">
+        <v>826.7</v>
+      </c>
+      <c r="F45" s="10">
+        <v>826.7</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>44791</v>
+      </c>
+      <c r="B46" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D46" s="10">
+        <v>2</v>
+      </c>
+      <c r="E46" s="10">
+        <v>117</v>
+      </c>
+      <c r="F46" s="10">
+        <v>117</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>44790</v>
+      </c>
+      <c r="B47" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D47" s="10">
+        <v>2</v>
+      </c>
+      <c r="E47" s="10">
+        <v>138</v>
+      </c>
+      <c r="F47" s="10">
+        <v>138</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>44789</v>
+      </c>
+      <c r="B48" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D48" s="10">
+        <v>2</v>
+      </c>
+      <c r="E48" s="10">
+        <v>367</v>
+      </c>
+      <c r="F48" s="10">
+        <v>367</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>44787</v>
+      </c>
+      <c r="B49" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D49" s="10">
+        <v>2</v>
+      </c>
+      <c r="E49" s="10">
+        <v>448</v>
+      </c>
+      <c r="F49" s="10">
+        <v>448</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>44786</v>
+      </c>
+      <c r="B50" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D50" s="10">
+        <v>2</v>
+      </c>
+      <c r="E50" s="10">
+        <v>128</v>
+      </c>
+      <c r="F50" s="10">
+        <v>128</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>44784</v>
+      </c>
+      <c r="B51" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D51" s="10">
+        <v>2</v>
+      </c>
+      <c r="E51" s="10">
+        <v>448</v>
+      </c>
+      <c r="F51" s="10">
+        <v>448</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>44782</v>
+      </c>
+      <c r="B52" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D52" s="10">
+        <v>3</v>
+      </c>
+      <c r="E52" s="10">
+        <v>829</v>
+      </c>
+      <c r="F52" s="10">
+        <v>829</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>44781</v>
+      </c>
+      <c r="B53" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D53" s="10">
+        <v>2</v>
+      </c>
+      <c r="E53" s="10">
+        <v>348</v>
+      </c>
+      <c r="F53" s="10">
+        <v>348</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>44779</v>
+      </c>
+      <c r="B54" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D54" s="10">
+        <v>2</v>
+      </c>
+      <c r="E54" s="10">
+        <v>336</v>
+      </c>
+      <c r="F54" s="10">
+        <v>336</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>44778</v>
+      </c>
+      <c r="B55" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D55" s="10">
+        <v>2</v>
+      </c>
+      <c r="E55" s="10">
+        <v>840</v>
+      </c>
+      <c r="F55" s="10">
+        <v>840</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>44777</v>
+      </c>
+      <c r="B56" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D56" s="10">
+        <v>2</v>
+      </c>
+      <c r="E56" s="10">
+        <v>164</v>
+      </c>
+      <c r="F56" s="10">
+        <v>164</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>44776</v>
+      </c>
+      <c r="B57" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D57" s="10">
+        <v>2</v>
+      </c>
+      <c r="E57" s="10">
+        <v>438</v>
+      </c>
+      <c r="F57" s="10">
+        <v>438</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>44775</v>
+      </c>
+      <c r="B58" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D58" s="10">
+        <v>2</v>
+      </c>
+      <c r="E58" s="10">
+        <v>378</v>
+      </c>
+      <c r="F58" s="10">
+        <v>378</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>44773</v>
+      </c>
+      <c r="B59" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D59" s="10">
+        <v>2</v>
+      </c>
+      <c r="E59" s="10">
+        <v>253</v>
+      </c>
+      <c r="F59" s="10">
+        <v>253</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>44772</v>
+      </c>
+      <c r="B60" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D60" s="10">
+        <v>2</v>
+      </c>
+      <c r="E60" s="10">
+        <v>550</v>
+      </c>
+      <c r="F60" s="10">
+        <v>550</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>44770</v>
+      </c>
+      <c r="B61" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D61" s="10">
+        <v>2</v>
+      </c>
+      <c r="E61" s="10">
+        <v>939</v>
+      </c>
+      <c r="F61" s="10">
+        <v>939</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>44767</v>
+      </c>
+      <c r="B62" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D62" s="10">
+        <v>2</v>
+      </c>
+      <c r="E62" s="10">
+        <v>135</v>
+      </c>
+      <c r="F62" s="10">
+        <v>135</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>44765</v>
+      </c>
+      <c r="B63" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D63" s="10">
+        <v>2</v>
+      </c>
+      <c r="E63" s="10">
+        <v>459</v>
+      </c>
+      <c r="F63" s="10">
+        <v>459</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <v>44764</v>
+      </c>
+      <c r="B64" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D64" s="10">
+        <v>2</v>
+      </c>
+      <c r="E64" s="10">
+        <v>79</v>
+      </c>
+      <c r="F64" s="10">
+        <v>79</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>44763</v>
+      </c>
+      <c r="B65" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D65" s="10">
+        <v>2</v>
+      </c>
+      <c r="E65" s="10">
+        <v>148</v>
+      </c>
+      <c r="F65" s="10">
+        <v>148</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>44759</v>
+      </c>
+      <c r="B66" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D66" s="10">
+        <v>2</v>
+      </c>
+      <c r="E66" s="10">
+        <v>308</v>
+      </c>
+      <c r="F66" s="10">
+        <v>308</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <v>44753</v>
+      </c>
+      <c r="B67" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D67" s="10">
+        <v>2</v>
+      </c>
+      <c r="E67" s="10">
+        <v>405</v>
+      </c>
+      <c r="F67" s="10">
+        <v>405</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>44750</v>
+      </c>
+      <c r="B68" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D68" s="10">
+        <v>2</v>
+      </c>
+      <c r="E68" s="10">
+        <v>453</v>
+      </c>
+      <c r="F68" s="10">
+        <v>453</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <v>44747</v>
+      </c>
+      <c r="B69" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D69" s="10">
+        <v>2</v>
+      </c>
+      <c r="E69" s="10">
+        <v>500</v>
+      </c>
+      <c r="F69" s="10">
+        <v>500</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>44740</v>
+      </c>
+      <c r="B70" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D70" s="10">
+        <v>2</v>
+      </c>
+      <c r="E70" s="10">
+        <v>687</v>
+      </c>
+      <c r="F70" s="10">
+        <v>687</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <v>44739</v>
+      </c>
+      <c r="B71" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D71" s="10">
+        <v>1</v>
+      </c>
+      <c r="E71" s="10">
+        <v>457</v>
+      </c>
+      <c r="F71" s="10">
+        <v>457</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>44738</v>
+      </c>
+      <c r="B72" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D72" s="10">
+        <v>1</v>
+      </c>
+      <c r="E72" s="10">
+        <v>330</v>
+      </c>
+      <c r="F72" s="10">
+        <v>330</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>44737</v>
+      </c>
+      <c r="B73" s="10">
+        <v>15874</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D73" s="10">
+        <v>1</v>
+      </c>
+      <c r="E73" s="10">
+        <v>450</v>
+      </c>
+      <c r="F73" s="10">
+        <v>450</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E1CA00-C981-42D7-942E-69B8E227F557}">
+  <dimension ref="A1:O47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="12">
+        <v>44916</v>
+      </c>
+      <c r="B1" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D1" s="12">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12">
+        <v>114</v>
+      </c>
+      <c r="F1" s="12">
+        <v>114</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>44915</v>
+      </c>
+      <c r="B2" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D2" s="12">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12">
+        <v>650</v>
+      </c>
+      <c r="F2" s="12">
+        <v>650</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>1757</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>44914</v>
+      </c>
+      <c r="B3" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2</v>
+      </c>
+      <c r="E3" s="12">
+        <v>305</v>
+      </c>
+      <c r="F3" s="12">
+        <v>305</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>1755</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="2">
+        <v>20000</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>44913</v>
+      </c>
+      <c r="B4" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D4" s="12">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12">
+        <v>277</v>
+      </c>
+      <c r="F4" s="12">
+        <v>277</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>1755</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="4">
+        <f>SUM(E:E)</f>
+        <v>20829</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>44912</v>
+      </c>
+      <c r="B5" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>437</v>
+      </c>
+      <c r="F5" s="12">
+        <v>437</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>1761</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="5">
+        <f>M2+M3-O3-M4</f>
+        <v>-829</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>44911</v>
+      </c>
+      <c r="B6" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12">
+        <v>998</v>
+      </c>
+      <c r="F6" s="12">
+        <v>998</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>1763</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="3">
+        <v>-112.14</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>44910</v>
+      </c>
+      <c r="B7" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12">
+        <v>151</v>
+      </c>
+      <c r="F7" s="12">
+        <v>151</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>1755</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="6">
+        <f>M5+M6</f>
+        <v>-941.14</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>44909</v>
+      </c>
+      <c r="B8" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2</v>
+      </c>
+      <c r="E8" s="12">
+        <v>665</v>
+      </c>
+      <c r="F8" s="12">
+        <v>665</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>44907</v>
+      </c>
+      <c r="B9" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12">
+        <v>424</v>
+      </c>
+      <c r="F9" s="12">
+        <v>424</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>44906</v>
+      </c>
+      <c r="B10" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>50</v>
+      </c>
+      <c r="F10" s="12">
+        <v>50</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>44905</v>
+      </c>
+      <c r="B11" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D11" s="12">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12">
+        <v>257</v>
+      </c>
+      <c r="F11" s="12">
+        <v>257</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>44904</v>
+      </c>
+      <c r="B12" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>730</v>
+      </c>
+      <c r="F12" s="12">
+        <v>730</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>44903</v>
+      </c>
+      <c r="B13" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2</v>
+      </c>
+      <c r="E13" s="12">
+        <v>779</v>
+      </c>
+      <c r="F13" s="12">
+        <v>779</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>44902</v>
+      </c>
+      <c r="B14" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D14" s="12">
+        <v>2</v>
+      </c>
+      <c r="E14" s="12">
+        <v>364</v>
+      </c>
+      <c r="F14" s="12">
+        <v>364</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>44901</v>
+      </c>
+      <c r="B15" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>144</v>
+      </c>
+      <c r="F15" s="12">
+        <v>144</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>44900</v>
+      </c>
+      <c r="B16" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>311</v>
+      </c>
+      <c r="F16" s="12">
+        <v>311</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>44899</v>
+      </c>
+      <c r="B17" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2</v>
+      </c>
+      <c r="E17" s="12">
+        <v>158</v>
+      </c>
+      <c r="F17" s="12">
+        <v>158</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>44898</v>
+      </c>
+      <c r="B18" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D18" s="12">
+        <v>2</v>
+      </c>
+      <c r="E18" s="12">
+        <v>988</v>
+      </c>
+      <c r="F18" s="12">
+        <v>988</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>44897</v>
+      </c>
+      <c r="B19" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12">
+        <v>80</v>
+      </c>
+      <c r="F19" s="12">
+        <v>80</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>44896</v>
+      </c>
+      <c r="B20" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12">
+        <v>662</v>
+      </c>
+      <c r="F20" s="12">
+        <v>662</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>44895</v>
+      </c>
+      <c r="B21" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D21" s="12">
+        <v>2</v>
+      </c>
+      <c r="E21" s="12">
+        <v>695</v>
+      </c>
+      <c r="F21" s="12">
+        <v>695</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>44894</v>
+      </c>
+      <c r="B22" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D22" s="12">
+        <v>2</v>
+      </c>
+      <c r="E22" s="12">
+        <v>758</v>
+      </c>
+      <c r="F22" s="12">
+        <v>758</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>44885</v>
+      </c>
+      <c r="B23" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="E23" s="12">
+        <v>72</v>
+      </c>
+      <c r="F23" s="12">
+        <v>72</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>44884</v>
+      </c>
+      <c r="B24" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>1786</v>
+      </c>
+      <c r="D24" s="12">
+        <v>3</v>
+      </c>
+      <c r="E24" s="12">
+        <v>277</v>
+      </c>
+      <c r="F24" s="12">
+        <v>277</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>44882</v>
+      </c>
+      <c r="B25" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+      <c r="E25" s="12">
+        <v>470</v>
+      </c>
+      <c r="F25" s="12">
+        <v>470</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>44881</v>
+      </c>
+      <c r="B26" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D26" s="12">
+        <v>2</v>
+      </c>
+      <c r="E26" s="12">
+        <v>526</v>
+      </c>
+      <c r="F26" s="12">
+        <v>526</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>44880</v>
+      </c>
+      <c r="B27" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D27" s="12">
+        <v>2</v>
+      </c>
+      <c r="E27" s="12">
+        <v>370</v>
+      </c>
+      <c r="F27" s="12">
+        <v>370</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>44879</v>
+      </c>
+      <c r="B28" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D28" s="12">
+        <v>2</v>
+      </c>
+      <c r="E28" s="12">
+        <v>570</v>
+      </c>
+      <c r="F28" s="12">
+        <v>570</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>44878</v>
+      </c>
+      <c r="B29" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D29" s="12">
+        <v>4</v>
+      </c>
+      <c r="E29" s="12">
+        <v>740</v>
+      </c>
+      <c r="F29" s="12">
+        <v>740</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>44877</v>
+      </c>
+      <c r="B30" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D30" s="12">
+        <v>1</v>
+      </c>
+      <c r="E30" s="12">
+        <v>660</v>
+      </c>
+      <c r="F30" s="12">
+        <v>660</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>44876</v>
+      </c>
+      <c r="B31" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D31" s="12">
+        <v>2</v>
+      </c>
+      <c r="E31" s="12">
+        <v>460</v>
+      </c>
+      <c r="F31" s="12">
+        <v>460</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>44875</v>
+      </c>
+      <c r="B32" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
+      <c r="E32" s="12">
+        <v>473</v>
+      </c>
+      <c r="F32" s="12">
+        <v>473</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>44874</v>
+      </c>
+      <c r="B33" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D33" s="12">
+        <v>2</v>
+      </c>
+      <c r="E33" s="12">
+        <v>580</v>
+      </c>
+      <c r="F33" s="12">
+        <v>580</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>44873</v>
+      </c>
+      <c r="B34" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D34" s="12">
+        <v>1</v>
+      </c>
+      <c r="E34" s="12">
+        <v>520</v>
+      </c>
+      <c r="F34" s="12">
+        <v>520</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>44872</v>
+      </c>
+      <c r="B35" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D35" s="12">
+        <v>1</v>
+      </c>
+      <c r="E35" s="12">
+        <v>460</v>
+      </c>
+      <c r="F35" s="12">
+        <v>460</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>44871</v>
+      </c>
+      <c r="B36" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
+      <c r="E36" s="12">
+        <v>460</v>
+      </c>
+      <c r="F36" s="12">
+        <v>460</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>44870</v>
+      </c>
+      <c r="B37" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D37" s="12">
+        <v>1</v>
+      </c>
+      <c r="E37" s="12">
+        <v>379</v>
+      </c>
+      <c r="F37" s="12">
+        <v>379</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>44869</v>
+      </c>
+      <c r="B38" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D38" s="12">
+        <v>2</v>
+      </c>
+      <c r="E38" s="12">
+        <v>676</v>
+      </c>
+      <c r="F38" s="12">
+        <v>676</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>44868</v>
+      </c>
+      <c r="B39" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D39" s="12">
+        <v>2</v>
+      </c>
+      <c r="E39" s="12">
+        <v>326</v>
+      </c>
+      <c r="F39" s="12">
+        <v>326</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>44867</v>
+      </c>
+      <c r="B40" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1</v>
+      </c>
+      <c r="E40" s="12">
+        <v>330</v>
+      </c>
+      <c r="F40" s="12">
+        <v>330</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>44866</v>
+      </c>
+      <c r="B41" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D41" s="12">
+        <v>3</v>
+      </c>
+      <c r="E41" s="12">
+        <v>144</v>
+      </c>
+      <c r="F41" s="12">
+        <v>144</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <v>44865</v>
+      </c>
+      <c r="B42" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D42" s="12">
+        <v>3</v>
+      </c>
+      <c r="E42" s="12">
+        <v>186</v>
+      </c>
+      <c r="F42" s="12">
+        <v>186</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <v>44864</v>
+      </c>
+      <c r="B43" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D43" s="12">
+        <v>1</v>
+      </c>
+      <c r="E43" s="12">
+        <v>379</v>
+      </c>
+      <c r="F43" s="12">
+        <v>379</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
+        <v>44863</v>
+      </c>
+      <c r="B44" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D44" s="12">
+        <v>2</v>
+      </c>
+      <c r="E44" s="12">
+        <v>570</v>
+      </c>
+      <c r="F44" s="12">
+        <v>570</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>44862</v>
+      </c>
+      <c r="B45" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D45" s="12">
+        <v>2</v>
+      </c>
+      <c r="E45" s="12">
+        <v>570</v>
+      </c>
+      <c r="F45" s="12">
+        <v>570</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <v>44861</v>
+      </c>
+      <c r="B46" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D46" s="12">
+        <v>3</v>
+      </c>
+      <c r="E46" s="12">
+        <v>264</v>
+      </c>
+      <c r="F46" s="12">
+        <v>264</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <v>44860</v>
+      </c>
+      <c r="B47" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D47" s="12">
+        <v>1</v>
+      </c>
+      <c r="E47" s="12">
+        <v>370</v>
+      </c>
+      <c r="F47" s="12">
+        <v>370</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119AF2F0-7A27-4751-BB26-DE8F972FE8B9}">
+  <dimension ref="A1:O27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="12">
+        <v>44945</v>
+      </c>
+      <c r="B1" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D1" s="12">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12">
+        <v>330</v>
+      </c>
+      <c r="F1" s="12">
+        <v>330</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>44944</v>
+      </c>
+      <c r="B2" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D2" s="12">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12">
+        <v>288</v>
+      </c>
+      <c r="F2" s="12">
+        <v>288</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>1715</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2">
+        <v>29000</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>44943</v>
+      </c>
+      <c r="B3" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D3" s="12">
+        <v>3</v>
+      </c>
+      <c r="E3" s="12">
+        <v>264</v>
+      </c>
+      <c r="F3" s="12">
+        <v>264</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>1718</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>44942</v>
+      </c>
+      <c r="B4" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>460</v>
+      </c>
+      <c r="F4" s="12">
+        <v>460</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>1720</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="4">
+        <f>SUM(E:E)</f>
+        <v>10300</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>44941</v>
+      </c>
+      <c r="B5" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>660</v>
+      </c>
+      <c r="F5" s="12">
+        <v>660</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>1720</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="5">
+        <f>M2+M3-O3-M4</f>
+        <v>18700</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>44940</v>
+      </c>
+      <c r="B6" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12">
+        <v>280</v>
+      </c>
+      <c r="F6" s="12">
+        <v>280</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>1723</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="3">
+        <v>-941.14</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>44939</v>
+      </c>
+      <c r="B7" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
+        <v>379</v>
+      </c>
+      <c r="F7" s="12">
+        <v>379</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>1723</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="6">
+        <f>M5+M6</f>
+        <v>17758.86</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>44938</v>
+      </c>
+      <c r="B8" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <v>460</v>
+      </c>
+      <c r="F8" s="12">
+        <v>460</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>44937</v>
+      </c>
+      <c r="B9" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
+        <v>338</v>
+      </c>
+      <c r="F9" s="12">
+        <v>338</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>44936</v>
+      </c>
+      <c r="B10" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>330</v>
+      </c>
+      <c r="F10" s="12">
+        <v>330</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>44935</v>
+      </c>
+      <c r="B11" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12">
+        <v>288</v>
+      </c>
+      <c r="F11" s="12">
+        <v>288</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>44934</v>
+      </c>
+      <c r="B12" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12">
+        <v>395</v>
+      </c>
+      <c r="F12" s="12">
+        <v>395</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>44933</v>
+      </c>
+      <c r="B13" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2</v>
+      </c>
+      <c r="E13" s="12">
+        <v>300</v>
+      </c>
+      <c r="F13" s="12">
+        <v>300</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>44932</v>
+      </c>
+      <c r="B14" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12">
+        <v>290</v>
+      </c>
+      <c r="F14" s="12">
+        <v>290</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>44931</v>
+      </c>
+      <c r="B15" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12">
+        <v>465</v>
+      </c>
+      <c r="F15" s="12">
+        <v>465</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>44930</v>
+      </c>
+      <c r="B16" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12">
+        <v>285</v>
+      </c>
+      <c r="F16" s="12">
+        <v>285</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>44929</v>
+      </c>
+      <c r="B17" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12">
+        <v>330</v>
+      </c>
+      <c r="F17" s="12">
+        <v>330</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>44928</v>
+      </c>
+      <c r="B18" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D18" s="12">
+        <v>3</v>
+      </c>
+      <c r="E18" s="12">
+        <v>264</v>
+      </c>
+      <c r="F18" s="12">
+        <v>264</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>44927</v>
+      </c>
+      <c r="B19" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12">
+        <v>189</v>
+      </c>
+      <c r="F19" s="12">
+        <v>189</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>44926</v>
+      </c>
+      <c r="B20" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12">
+        <v>398</v>
+      </c>
+      <c r="F20" s="12">
+        <v>398</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>44925</v>
+      </c>
+      <c r="B21" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D21" s="12">
+        <v>2</v>
+      </c>
+      <c r="E21" s="12">
+        <v>570</v>
+      </c>
+      <c r="F21" s="12">
+        <v>570</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>44924</v>
+      </c>
+      <c r="B22" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1</v>
+      </c>
+      <c r="E22" s="12">
+        <v>285</v>
+      </c>
+      <c r="F22" s="12">
+        <v>285</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>44923</v>
+      </c>
+      <c r="B23" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D23" s="12">
+        <v>2</v>
+      </c>
+      <c r="E23" s="12">
+        <v>660</v>
+      </c>
+      <c r="F23" s="12">
+        <v>660</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>44922</v>
+      </c>
+      <c r="B24" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D24" s="12">
+        <v>5</v>
+      </c>
+      <c r="E24" s="12">
+        <v>440</v>
+      </c>
+      <c r="F24" s="12">
+        <v>440</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>44921</v>
+      </c>
+      <c r="B25" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D25" s="12">
+        <v>3</v>
+      </c>
+      <c r="E25" s="12">
+        <v>324</v>
+      </c>
+      <c r="F25" s="12">
+        <v>324</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>44920</v>
+      </c>
+      <c r="B26" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
+      <c r="E26" s="12">
+        <v>288</v>
+      </c>
+      <c r="F26" s="12">
+        <v>288</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>44919</v>
+      </c>
+      <c r="B27" s="12">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D27" s="12">
+        <v>2</v>
+      </c>
+      <c r="E27" s="12">
+        <v>740</v>
+      </c>
+      <c r="F27" s="12">
+        <v>740</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/s_d/麻吉3月.xlsx
+++ b/s_d/麻吉3月.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="10" activeTab="25"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="12" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="3.1" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,14 @@
     <sheet name="3.24" sheetId="24" r:id="rId24"/>
     <sheet name="3.25" sheetId="25" r:id="rId25"/>
     <sheet name="3.26" sheetId="26" r:id="rId26"/>
+    <sheet name="3.27" sheetId="27" r:id="rId27"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4950" uniqueCount="1926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5047" uniqueCount="1972">
   <si>
     <t>202003012033161903718</t>
   </si>
@@ -5817,6 +5818,144 @@
   </si>
   <si>
     <t>202003261649381911962</t>
+  </si>
+  <si>
+    <t>202003271825241775125</t>
+  </si>
+  <si>
+    <t>2020-03-27 18:25</t>
+  </si>
+  <si>
+    <t>202003271830421879509</t>
+  </si>
+  <si>
+    <t>2020-03-27 18:30</t>
+  </si>
+  <si>
+    <t>202003271825151800707</t>
+  </si>
+  <si>
+    <t>202003271830511289484</t>
+  </si>
+  <si>
+    <t>202003271832021503680</t>
+  </si>
+  <si>
+    <t>2020-03-27 18:32</t>
+  </si>
+  <si>
+    <t>202003271831011927378</t>
+  </si>
+  <si>
+    <t>2020-03-27 18:31</t>
+  </si>
+  <si>
+    <t>202003271824211319856</t>
+  </si>
+  <si>
+    <t>2020-03-27 18:24</t>
+  </si>
+  <si>
+    <t>202003271832111315305</t>
+  </si>
+  <si>
+    <t>202003271824311218572</t>
+  </si>
+  <si>
+    <t>202003271824421414454</t>
+  </si>
+  <si>
+    <t>202003271629431583607</t>
+  </si>
+  <si>
+    <t>2020-03-27 16:29</t>
+  </si>
+  <si>
+    <t>202003271648571503640</t>
+  </si>
+  <si>
+    <t>2020-03-27 16:49</t>
+  </si>
+  <si>
+    <t>202003271629531589008</t>
+  </si>
+  <si>
+    <t>202003271630011751695</t>
+  </si>
+  <si>
+    <t>2020-03-27 16:30</t>
+  </si>
+  <si>
+    <t>202003271649091512051</t>
+  </si>
+  <si>
+    <t>202003271630091447717</t>
+  </si>
+  <si>
+    <t>202003271648461219617</t>
+  </si>
+  <si>
+    <t>2020-03-27 16:48</t>
+  </si>
+  <si>
+    <t>202003271613421993103</t>
+  </si>
+  <si>
+    <t>2020-03-27 16:13</t>
+  </si>
+  <si>
+    <t>202003271648361123677</t>
+  </si>
+  <si>
+    <t>202003271613511576016</t>
+  </si>
+  <si>
+    <t>202003271423571882155</t>
+  </si>
+  <si>
+    <t>2020-03-27 14:24</t>
+  </si>
+  <si>
+    <t>202003271423391332673</t>
+  </si>
+  <si>
+    <t>2020-03-27 14:23</t>
+  </si>
+  <si>
+    <t>202003271423241395857</t>
+  </si>
+  <si>
+    <t>202003271343231492743</t>
+  </si>
+  <si>
+    <t>2020-03-27 13:43</t>
+  </si>
+  <si>
+    <t>202003271343071216789</t>
+  </si>
+  <si>
+    <t>202003271342511318949</t>
+  </si>
+  <si>
+    <t>2020-03-27 13:42</t>
+  </si>
+  <si>
+    <t>202003271342341265390</t>
+  </si>
+  <si>
+    <t>202003271340551398358</t>
+  </si>
+  <si>
+    <t>2020-03-27 13:41</t>
+  </si>
+  <si>
+    <t>202003271339501681290</t>
+  </si>
+  <si>
+    <t>2020-03-27 13:39</t>
+  </si>
+  <si>
+    <t>202003271339351660583</t>
   </si>
 </sst>
 </file>
@@ -5824,9 +5963,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -5849,6 +5988,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -5864,7 +6017,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5879,14 +6086,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5894,58 +6094,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -5962,31 +6117,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6019,7 +6158,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6031,7 +6242,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6043,79 +6308,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6127,61 +6320,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6210,11 +6349,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6237,8 +6400,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6258,26 +6421,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6296,17 +6446,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6315,10 +6454,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6327,133 +6466,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -29313,61 +29452,61 @@
   <sheetPr/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1">
+      <c r="A1" s="7">
         <v>45036</v>
       </c>
-      <c r="B1" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1887</v>
       </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
+      <c r="D1" s="7">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7">
         <v>80</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="7">
         <v>80</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>1888</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1">
+      <c r="A2" s="7">
         <v>45032</v>
       </c>
-      <c r="B2" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>1889</v>
       </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="7">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7">
         <v>315</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="7">
         <v>315</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>1888</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -29378,28 +29517,28 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1">
+      <c r="A3" s="7">
         <v>45031</v>
       </c>
-      <c r="B3" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>1890</v>
       </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
         <v>686</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="7">
         <v>686</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>1891</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -29414,28 +29553,28 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1">
+      <c r="A4" s="7">
         <v>45028</v>
       </c>
-      <c r="B4" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>1892</v>
       </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="7">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7">
         <v>553</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="7">
         <v>553</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>1893</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -29449,28 +29588,28 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="1">
+      <c r="A5" s="7">
         <v>45027</v>
       </c>
-      <c r="B5" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>1894</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
         <v>520</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="7">
         <v>520</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>1888</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -29484,28 +29623,28 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="1">
+      <c r="A6" s="7">
         <v>45026</v>
       </c>
-      <c r="B6" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>1895</v>
       </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
         <v>135</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <v>135</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>1896</v>
       </c>
       <c r="L6" s="3" t="s">
@@ -29518,28 +29657,28 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="1">
+      <c r="A7" s="7">
         <v>45025</v>
       </c>
-      <c r="B7" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>1897</v>
       </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7">
         <v>175</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="7">
         <v>175</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>1898</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -29553,497 +29692,1346 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:8">
+      <c r="A8" s="7">
+        <v>45024</v>
+      </c>
+      <c r="B8" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>250</v>
+      </c>
+      <c r="F8" s="7">
+        <v>250</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7">
+        <v>45023</v>
+      </c>
+      <c r="B9" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>265</v>
+      </c>
+      <c r="F9" s="7">
+        <v>265</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7">
+        <v>45022</v>
+      </c>
+      <c r="B10" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>109.9</v>
+      </c>
+      <c r="F10" s="7">
+        <v>109.9</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7">
+        <v>45021</v>
+      </c>
+      <c r="B11" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>692</v>
+      </c>
+      <c r="F11" s="7">
+        <v>692</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7">
+        <v>45020</v>
+      </c>
+      <c r="B12" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>421</v>
+      </c>
+      <c r="F12" s="7">
+        <v>421</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7">
+        <v>45017</v>
+      </c>
+      <c r="B13" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>174</v>
+      </c>
+      <c r="F13" s="7">
+        <v>174</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7">
+        <v>45016</v>
+      </c>
+      <c r="B14" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>330</v>
+      </c>
+      <c r="F14" s="7">
+        <v>330</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7">
+        <v>45015</v>
+      </c>
+      <c r="B15" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7">
+        <v>183</v>
+      </c>
+      <c r="F15" s="7">
+        <v>183</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7">
+        <v>45013</v>
+      </c>
+      <c r="B16" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>196</v>
+      </c>
+      <c r="F16" s="7">
+        <v>196</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7">
+        <v>45012</v>
+      </c>
+      <c r="B17" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>263</v>
+      </c>
+      <c r="F17" s="7">
+        <v>263</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="7">
+        <v>45011</v>
+      </c>
+      <c r="B18" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7">
+        <v>938</v>
+      </c>
+      <c r="F18" s="7">
+        <v>938</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7">
+        <v>45010</v>
+      </c>
+      <c r="B19" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2</v>
+      </c>
+      <c r="E19" s="7">
+        <v>138</v>
+      </c>
+      <c r="F19" s="7">
+        <v>138</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7">
+        <v>45009</v>
+      </c>
+      <c r="B20" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>393</v>
+      </c>
+      <c r="F20" s="7">
+        <v>393</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7">
+        <v>45007</v>
+      </c>
+      <c r="B21" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2</v>
+      </c>
+      <c r="E21" s="7">
+        <v>118</v>
+      </c>
+      <c r="F21" s="7">
+        <v>118</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7">
+        <v>45006</v>
+      </c>
+      <c r="B22" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
+      <c r="E22" s="7">
+        <v>645</v>
+      </c>
+      <c r="F22" s="7">
+        <v>645</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="7">
+        <v>45005</v>
+      </c>
+      <c r="B23" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2</v>
+      </c>
+      <c r="E23" s="7">
+        <v>338</v>
+      </c>
+      <c r="F23" s="7">
+        <v>338</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="7">
+        <v>45004</v>
+      </c>
+      <c r="B24" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7">
+        <v>102</v>
+      </c>
+      <c r="F24" s="7">
+        <v>102</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="7">
+        <v>45002</v>
+      </c>
+      <c r="B25" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2</v>
+      </c>
+      <c r="E25" s="7">
+        <v>867</v>
+      </c>
+      <c r="F25" s="7">
+        <v>867</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="7">
+        <v>45001</v>
+      </c>
+      <c r="B26" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2</v>
+      </c>
+      <c r="E26" s="7">
+        <v>328</v>
+      </c>
+      <c r="F26" s="7">
+        <v>328</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="13" max="13" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1">
+        <v>45074</v>
+      </c>
+      <c r="B1" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>526</v>
+      </c>
+      <c r="F1" s="1">
+        <v>526</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1">
+        <v>45073</v>
+      </c>
+      <c r="B2" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>174</v>
+      </c>
+      <c r="F2" s="1">
+        <v>174</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>300</v>
+      </c>
+      <c r="F3" s="1">
+        <v>300</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <v>45070</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>419</v>
+      </c>
+      <c r="F4" s="1">
+        <v>419</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="4">
+        <f>SUM(E:E)</f>
+        <v>10814.9</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B5" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>120</v>
+      </c>
+      <c r="F5" s="1">
+        <v>120</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="5">
+        <f>M2+M3-O3-M4</f>
+        <v>-10814.9</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>107</v>
+      </c>
+      <c r="F6" s="1">
+        <v>107</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="3">
+        <v>10861.16</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B7" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>383</v>
+      </c>
+      <c r="F7" s="1">
+        <v>383</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="6">
+        <f>M5+M6</f>
+        <v>46.2600000000002</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>45024</v>
+        <v>45066</v>
       </c>
       <c r="B8" s="1">
         <v>15874</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1899</v>
+        <v>1938</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>250</v>
+        <v>521</v>
       </c>
       <c r="F8" s="1">
-        <v>250</v>
+        <v>521</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>1896</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>45023</v>
+        <v>45064</v>
       </c>
       <c r="B9" s="1">
         <v>15874</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1900</v>
+        <v>1939</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>265</v>
+        <v>136.9</v>
       </c>
       <c r="F9" s="1">
-        <v>265</v>
+        <v>136.9</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1901</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>45022</v>
+        <v>45062</v>
       </c>
       <c r="B10" s="1">
         <v>15874</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1902</v>
+        <v>1940</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>109.9</v>
+        <v>347</v>
       </c>
       <c r="F10" s="1">
-        <v>109.9</v>
+        <v>347</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>1901</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>45021</v>
+        <v>45061</v>
       </c>
       <c r="B11" s="1">
         <v>15874</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1903</v>
+        <v>1941</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>692</v>
+        <v>554</v>
       </c>
       <c r="F11" s="1">
-        <v>692</v>
+        <v>554</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>1888</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>45020</v>
+        <v>45060</v>
       </c>
       <c r="B12" s="1">
         <v>15874</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1904</v>
+        <v>1943</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>421</v>
+        <v>488</v>
       </c>
       <c r="F12" s="1">
-        <v>421</v>
+        <v>488</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>1905</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>45017</v>
+        <v>45058</v>
       </c>
       <c r="B13" s="1">
         <v>15874</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1906</v>
+        <v>1945</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>174</v>
+        <v>799</v>
       </c>
       <c r="F13" s="1">
-        <v>174</v>
+        <v>799</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>1905</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>45016</v>
+        <v>45057</v>
       </c>
       <c r="B14" s="1">
         <v>15874</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1907</v>
+        <v>1946</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>330</v>
+        <v>198</v>
       </c>
       <c r="F14" s="1">
-        <v>330</v>
+        <v>198</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>1901</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>45015</v>
+        <v>45055</v>
       </c>
       <c r="B15" s="1">
         <v>15874</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1908</v>
+        <v>1948</v>
       </c>
       <c r="D15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="F15" s="1">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>1909</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>45013</v>
+        <v>45054</v>
       </c>
       <c r="B16" s="1">
         <v>15874</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1910</v>
+        <v>1949</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="F16" s="1">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>1911</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>45012</v>
+        <v>45053</v>
       </c>
       <c r="B17" s="1">
         <v>15874</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1912</v>
+        <v>1950</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="F17" s="1">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>1913</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>45011</v>
+        <v>45052</v>
       </c>
       <c r="B18" s="1">
         <v>15874</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1914</v>
+        <v>1952</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
       <c r="E18" s="1">
-        <v>938</v>
+        <v>194</v>
       </c>
       <c r="F18" s="1">
-        <v>938</v>
+        <v>194</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>1911</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>45010</v>
+        <v>45051</v>
       </c>
       <c r="B19" s="1">
         <v>15874</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1915</v>
+        <v>1954</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
       <c r="E19" s="1">
-        <v>138</v>
+        <v>493</v>
       </c>
       <c r="F19" s="1">
-        <v>138</v>
+        <v>493</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>1916</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>45009</v>
+        <v>45050</v>
       </c>
       <c r="B20" s="1">
         <v>15874</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1917</v>
+        <v>1955</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
       </c>
       <c r="E20" s="1">
-        <v>393</v>
+        <v>745</v>
       </c>
       <c r="F20" s="1">
-        <v>393</v>
+        <v>745</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>1913</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>45007</v>
+        <v>45049</v>
       </c>
       <c r="B21" s="1">
         <v>15874</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1918</v>
+        <v>1956</v>
       </c>
       <c r="D21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>118</v>
+        <v>299</v>
       </c>
       <c r="F21" s="1">
-        <v>118</v>
+        <v>299</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1919</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>45006</v>
+        <v>45048</v>
       </c>
       <c r="B22" s="1">
         <v>15874</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1920</v>
+        <v>1958</v>
       </c>
       <c r="D22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>645</v>
+        <v>460</v>
       </c>
       <c r="F22" s="1">
-        <v>645</v>
+        <v>460</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>1913</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1">
-        <v>45005</v>
+        <v>45047</v>
       </c>
       <c r="B23" s="1">
         <v>15874</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1921</v>
+        <v>1960</v>
       </c>
       <c r="D23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>338</v>
+        <v>398</v>
       </c>
       <c r="F23" s="1">
-        <v>338</v>
+        <v>398</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>1919</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1">
-        <v>45004</v>
+        <v>45046</v>
       </c>
       <c r="B24" s="1">
         <v>15874</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1922</v>
+        <v>1961</v>
       </c>
       <c r="D24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>102</v>
+        <v>499</v>
       </c>
       <c r="F24" s="1">
-        <v>102</v>
+        <v>499</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>1923</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1">
-        <v>45002</v>
+        <v>45045</v>
       </c>
       <c r="B25" s="1">
         <v>15874</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1924</v>
+        <v>1963</v>
       </c>
       <c r="D25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>867</v>
+        <v>470</v>
       </c>
       <c r="F25" s="1">
-        <v>867</v>
+        <v>470</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1923</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1">
-        <v>45001</v>
+        <v>45044</v>
       </c>
       <c r="B26" s="1">
         <v>15874</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1925</v>
+        <v>1964</v>
       </c>
       <c r="D26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="F26" s="1">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>1901</v>
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>45043</v>
+      </c>
+      <c r="B27" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>360</v>
+      </c>
+      <c r="F27" s="1">
+        <v>360</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B28" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>240</v>
+      </c>
+      <c r="F28" s="1">
+        <v>240</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B29" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>298</v>
+      </c>
+      <c r="F29" s="1">
+        <v>298</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>45040</v>
+      </c>
+      <c r="B30" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>370</v>
+      </c>
+      <c r="F30" s="1">
+        <v>370</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>1970</v>
       </c>
     </row>
   </sheetData>

--- a/s_d/麻吉3月.xlsx
+++ b/s_d/麻吉3月.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="12" activeTab="26"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="12" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="3.1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,17 @@
     <sheet name="3.25" sheetId="25" r:id="rId25"/>
     <sheet name="3.26" sheetId="26" r:id="rId26"/>
     <sheet name="3.27" sheetId="27" r:id="rId27"/>
+    <sheet name="3.28" sheetId="28" r:id="rId28"/>
+    <sheet name="3.29" sheetId="29" r:id="rId29"/>
+    <sheet name="3.30" sheetId="30" r:id="rId30"/>
+    <sheet name="3.31" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5047" uniqueCount="1972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5486" uniqueCount="2168">
   <si>
     <t>202003012033161903718</t>
   </si>
@@ -5956,6 +5960,594 @@
   </si>
   <si>
     <t>202003271339351660583</t>
+  </si>
+  <si>
+    <t>202003282005181823897</t>
+  </si>
+  <si>
+    <t>2020-03-28 20:05</t>
+  </si>
+  <si>
+    <t>202003282007291800999</t>
+  </si>
+  <si>
+    <t>2020-03-28 20:07</t>
+  </si>
+  <si>
+    <t>202003281949121785313</t>
+  </si>
+  <si>
+    <t>2020-03-28 19:49</t>
+  </si>
+  <si>
+    <t>202003282005261883239</t>
+  </si>
+  <si>
+    <t>202003281949201593469</t>
+  </si>
+  <si>
+    <t>202003282007461296810</t>
+  </si>
+  <si>
+    <t>202003282005351929655</t>
+  </si>
+  <si>
+    <t>202003281949281133161</t>
+  </si>
+  <si>
+    <t>202003282010141285461</t>
+  </si>
+  <si>
+    <t>2020-03-28 20:10</t>
+  </si>
+  <si>
+    <t>202003282005451636864</t>
+  </si>
+  <si>
+    <t>202003281949391324265</t>
+  </si>
+  <si>
+    <t>202003282005531789330</t>
+  </si>
+  <si>
+    <t>202003281949471777097</t>
+  </si>
+  <si>
+    <t>202003282006021304942</t>
+  </si>
+  <si>
+    <t>2020-03-28 20:06</t>
+  </si>
+  <si>
+    <t>202003282008051243353</t>
+  </si>
+  <si>
+    <t>2020-03-28 20:08</t>
+  </si>
+  <si>
+    <t>202003281949561474774</t>
+  </si>
+  <si>
+    <t>2020-03-28 19:50</t>
+  </si>
+  <si>
+    <t>202003281950061741105</t>
+  </si>
+  <si>
+    <t>202003281950161327583</t>
+  </si>
+  <si>
+    <t>202003281950281506641</t>
+  </si>
+  <si>
+    <t>202003281929401830520</t>
+  </si>
+  <si>
+    <t>2020-03-28 19:29</t>
+  </si>
+  <si>
+    <t>202003281929471924803</t>
+  </si>
+  <si>
+    <t>202003281929551861592</t>
+  </si>
+  <si>
+    <t>202003281930061594703</t>
+  </si>
+  <si>
+    <t>2020-03-28 19:30</t>
+  </si>
+  <si>
+    <t>202003281950411469105</t>
+  </si>
+  <si>
+    <t>202003281930151283995</t>
+  </si>
+  <si>
+    <t>202003281930261182780</t>
+  </si>
+  <si>
+    <t>202003281925551955128</t>
+  </si>
+  <si>
+    <t>2020-03-28 19:25</t>
+  </si>
+  <si>
+    <t>202003281926261283525</t>
+  </si>
+  <si>
+    <t>2020-03-28 19:26</t>
+  </si>
+  <si>
+    <t>202003281828441266464</t>
+  </si>
+  <si>
+    <t>2020-03-28 18:28</t>
+  </si>
+  <si>
+    <t>202003281926031736787</t>
+  </si>
+  <si>
+    <t>202003281827411102665</t>
+  </si>
+  <si>
+    <t>2020-03-28 18:27</t>
+  </si>
+  <si>
+    <t>202003281926551813968</t>
+  </si>
+  <si>
+    <t>202003281926101679598</t>
+  </si>
+  <si>
+    <t>202003281826251934682</t>
+  </si>
+  <si>
+    <t>2020-03-28 18:26</t>
+  </si>
+  <si>
+    <t>202003281827551533722</t>
+  </si>
+  <si>
+    <t>202003281825371797975</t>
+  </si>
+  <si>
+    <t>2020-03-28 18:25</t>
+  </si>
+  <si>
+    <t>202003281825131439375</t>
+  </si>
+  <si>
+    <t>202003281824361775239</t>
+  </si>
+  <si>
+    <t>2020-03-28 18:24</t>
+  </si>
+  <si>
+    <t>202003281826021804938</t>
+  </si>
+  <si>
+    <t>202003281733041342769</t>
+  </si>
+  <si>
+    <t>2020-03-28 17:33</t>
+  </si>
+  <si>
+    <t>202003281823291186313</t>
+  </si>
+  <si>
+    <t>2020-03-28 18:23</t>
+  </si>
+  <si>
+    <t>202003281732551904458</t>
+  </si>
+  <si>
+    <t>2020-03-28 17:32</t>
+  </si>
+  <si>
+    <t>202003281826141581749</t>
+  </si>
+  <si>
+    <t>202003281823371124300</t>
+  </si>
+  <si>
+    <t>202003281732471904404</t>
+  </si>
+  <si>
+    <t>202003281823491591950</t>
+  </si>
+  <si>
+    <t>202003281824011736911</t>
+  </si>
+  <si>
+    <t>202003281824131928062</t>
+  </si>
+  <si>
+    <t>202003281824521503106</t>
+  </si>
+  <si>
+    <t>202003281730531533538</t>
+  </si>
+  <si>
+    <t>2020-03-28 17:30</t>
+  </si>
+  <si>
+    <t>202003281824241409740</t>
+  </si>
+  <si>
+    <t>202003281730321508059</t>
+  </si>
+  <si>
+    <t>202003281730121864514</t>
+  </si>
+  <si>
+    <t>202003281728151196590</t>
+  </si>
+  <si>
+    <t>2020-03-28 17:28</t>
+  </si>
+  <si>
+    <t>202003281728001268591</t>
+  </si>
+  <si>
+    <t>202003281406311195837</t>
+  </si>
+  <si>
+    <t>2020-03-28 14:06</t>
+  </si>
+  <si>
+    <t>202003281406161512476</t>
+  </si>
+  <si>
+    <t>202003281406031164513</t>
+  </si>
+  <si>
+    <t>202003281405471779811</t>
+  </si>
+  <si>
+    <t>2020-03-28 14:05</t>
+  </si>
+  <si>
+    <t>202003291752591221183</t>
+  </si>
+  <si>
+    <t>2020-03-29 17:53</t>
+  </si>
+  <si>
+    <t>202003291806251948280</t>
+  </si>
+  <si>
+    <t>2020-03-29 18:06</t>
+  </si>
+  <si>
+    <t>202003291806381258383</t>
+  </si>
+  <si>
+    <t>202003291752511943194</t>
+  </si>
+  <si>
+    <t>2020-03-29 17:52</t>
+  </si>
+  <si>
+    <t>202003291753111415998</t>
+  </si>
+  <si>
+    <t>202003291748281927829</t>
+  </si>
+  <si>
+    <t>2020-03-29 17:48</t>
+  </si>
+  <si>
+    <t>202003291748061960725</t>
+  </si>
+  <si>
+    <t>202003291748161750982</t>
+  </si>
+  <si>
+    <t>202003291645341591126</t>
+  </si>
+  <si>
+    <t>2020-03-29 16:45</t>
+  </si>
+  <si>
+    <t>202003291652071874979</t>
+  </si>
+  <si>
+    <t>2020-03-29 16:52</t>
+  </si>
+  <si>
+    <t>202003291659381692331</t>
+  </si>
+  <si>
+    <t>2020-03-29 16:59</t>
+  </si>
+  <si>
+    <t>202003291652161764307</t>
+  </si>
+  <si>
+    <t>202003291716301686332</t>
+  </si>
+  <si>
+    <t>2020-03-29 17:16</t>
+  </si>
+  <si>
+    <t>202003291652251208839</t>
+  </si>
+  <si>
+    <t>202003291701531809801</t>
+  </si>
+  <si>
+    <t>2020-03-29 17:01</t>
+  </si>
+  <si>
+    <t>202003291640561588426</t>
+  </si>
+  <si>
+    <t>2020-03-29 16:41</t>
+  </si>
+  <si>
+    <t>202003291700391350005</t>
+  </si>
+  <si>
+    <t>2020-03-29 17:00</t>
+  </si>
+  <si>
+    <t>202003291641051506304</t>
+  </si>
+  <si>
+    <t>202003291716131634272</t>
+  </si>
+  <si>
+    <t>202003291717081585867</t>
+  </si>
+  <si>
+    <t>2020-03-29 17:17</t>
+  </si>
+  <si>
+    <t>202003291641161129966</t>
+  </si>
+  <si>
+    <t>202003291637021450586</t>
+  </si>
+  <si>
+    <t>2020-03-29 16:37</t>
+  </si>
+  <si>
+    <t>202003291638591385188</t>
+  </si>
+  <si>
+    <t>2020-03-29 16:39</t>
+  </si>
+  <si>
+    <t>202003291637101980034</t>
+  </si>
+  <si>
+    <t>202003291700251662618</t>
+  </si>
+  <si>
+    <t>202003291637181129318</t>
+  </si>
+  <si>
+    <t>202003291700481184192</t>
+  </si>
+  <si>
+    <t>202003291634241323355</t>
+  </si>
+  <si>
+    <t>2020-03-29 16:34</t>
+  </si>
+  <si>
+    <t>202003291637301389696</t>
+  </si>
+  <si>
+    <t>202003291700161301719</t>
+  </si>
+  <si>
+    <t>202003291637381843680</t>
+  </si>
+  <si>
+    <t>202003291634161965282</t>
+  </si>
+  <si>
+    <t>202003291716511106446</t>
+  </si>
+  <si>
+    <t>202003291634081609268</t>
+  </si>
+  <si>
+    <t>202003291637561735493</t>
+  </si>
+  <si>
+    <t>2020-03-29 16:38</t>
+  </si>
+  <si>
+    <t>202003291634011401250</t>
+  </si>
+  <si>
+    <t>202003291700071356716</t>
+  </si>
+  <si>
+    <t>202003291638071149264</t>
+  </si>
+  <si>
+    <t>202003291639471925195</t>
+  </si>
+  <si>
+    <t>202003291633531600679</t>
+  </si>
+  <si>
+    <t>2020-03-29 16:33</t>
+  </si>
+  <si>
+    <t>202003291716211429041</t>
+  </si>
+  <si>
+    <t>202003291633461453563</t>
+  </si>
+  <si>
+    <t>202003291626081412808</t>
+  </si>
+  <si>
+    <t>2020-03-29 16:26</t>
+  </si>
+  <si>
+    <t>202003291541311273902</t>
+  </si>
+  <si>
+    <t>2020-03-29 15:41</t>
+  </si>
+  <si>
+    <t>202003291626231207472</t>
+  </si>
+  <si>
+    <t>202003291627201713658</t>
+  </si>
+  <si>
+    <t>2020-03-29 16:27</t>
+  </si>
+  <si>
+    <t>202003291541211111379</t>
+  </si>
+  <si>
+    <t>202003291626491849247</t>
+  </si>
+  <si>
+    <t>202003291541131127389</t>
+  </si>
+  <si>
+    <t>202003291626591546125</t>
+  </si>
+  <si>
+    <t>202003291540271920384</t>
+  </si>
+  <si>
+    <t>2020-03-29 15:40</t>
+  </si>
+  <si>
+    <t>202003291540201852015</t>
+  </si>
+  <si>
+    <t>202003291540371113417</t>
+  </si>
+  <si>
+    <t>202003291540451933338</t>
+  </si>
+  <si>
+    <t>202003291518161142552</t>
+  </si>
+  <si>
+    <t>2020-03-29 15:18</t>
+  </si>
+  <si>
+    <t>202003301750101942838</t>
+  </si>
+  <si>
+    <t>2020-03-30 17:50</t>
+  </si>
+  <si>
+    <t>202003301749451759373</t>
+  </si>
+  <si>
+    <t>2020-03-30 17:49</t>
+  </si>
+  <si>
+    <t>202003301705371704760</t>
+  </si>
+  <si>
+    <t>2020-03-30 17:05</t>
+  </si>
+  <si>
+    <t>202003301749531205808</t>
+  </si>
+  <si>
+    <t>202003301651031570895</t>
+  </si>
+  <si>
+    <t>2020-03-30 16:51</t>
+  </si>
+  <si>
+    <t>202003301703571804092</t>
+  </si>
+  <si>
+    <t>2020-03-30 17:04</t>
+  </si>
+  <si>
+    <t>202003301650551473278</t>
+  </si>
+  <si>
+    <t>2020-03-30 16:50</t>
+  </si>
+  <si>
+    <t>202003301704091351780</t>
+  </si>
+  <si>
+    <t>202003301650111803191</t>
+  </si>
+  <si>
+    <t>202003301650201230195</t>
+  </si>
+  <si>
+    <t>202003301636411641354</t>
+  </si>
+  <si>
+    <t>2020-03-30 16:36</t>
+  </si>
+  <si>
+    <t>202003301636061742667</t>
+  </si>
+  <si>
+    <t>202003301636181151401</t>
+  </si>
+  <si>
+    <t>202003301635581495605</t>
+  </si>
+  <si>
+    <t>202003301507381292179</t>
+  </si>
+  <si>
+    <t>2020-03-30 15:07</t>
+  </si>
+  <si>
+    <t>202003301504091572288</t>
+  </si>
+  <si>
+    <t>2020-03-30 15:04</t>
+  </si>
+  <si>
+    <t>202003301503561323323</t>
+  </si>
+  <si>
+    <t>202003301503481204105</t>
+  </si>
+  <si>
+    <t>2020-03-30 15:03</t>
+  </si>
+  <si>
+    <t>202003301421001387506</t>
+  </si>
+  <si>
+    <t>2020-03-30 14:21</t>
+  </si>
+  <si>
+    <t>202003301420531959712</t>
+  </si>
+  <si>
+    <t>2020-03-30 14:20</t>
+  </si>
+  <si>
+    <t>202003301407061897567</t>
+  </si>
+  <si>
+    <t>2020-03-30 14:07</t>
+  </si>
+  <si>
+    <t>202003301405071490136</t>
+  </si>
+  <si>
+    <t>2020-03-30 14:05</t>
+  </si>
+  <si>
+    <t>202003301404581996178</t>
   </si>
 </sst>
 </file>
@@ -5963,9 +6555,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -5987,20 +6579,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -6009,23 +6603,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6039,44 +6633,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -6086,13 +6642,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -6110,6 +6672,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -6117,7 +6702,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -6125,7 +6710,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6158,7 +6750,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6170,49 +6876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6224,61 +6888,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6290,31 +6906,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6350,16 +6942,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6382,30 +6985,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6421,13 +7000,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6454,10 +7046,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6466,133 +7058,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6600,7 +7192,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6612,6 +7203,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -7100,14 +7692,14 @@
       <c r="I4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>50000</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10">
@@ -7137,14 +7729,14 @@
       <c r="I5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="3"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="10">
@@ -7174,15 +7766,15 @@
       <c r="I6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <f>SUM(E:E)</f>
         <v>50022.7</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="10">
@@ -7212,15 +7804,15 @@
       <c r="I7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <f>M4+M5-O5-M6</f>
         <v>-22.6999999999971</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="10">
@@ -7250,14 +7842,14 @@
       <c r="I8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <v>-11.84</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="10">
@@ -7287,15 +7879,15 @@
       <c r="I9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <f>M7+M8</f>
         <v>-34.5399999999971</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="10">
@@ -10510,12 +11102,12 @@
       <c r="I2" s="9" t="s">
         <v>1057</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="9">
@@ -10545,16 +11137,16 @@
       <c r="I3" s="9" t="s">
         <v>1060</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>18000</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="9">
@@ -10584,15 +11176,15 @@
       <c r="I4" s="9" t="s">
         <v>1060</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>16395</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="9">
@@ -10622,15 +11214,15 @@
       <c r="I5" s="9" t="s">
         <v>1063</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>1605</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="9">
@@ -10660,14 +11252,14 @@
       <c r="I6" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>16.16</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="9">
@@ -10697,15 +11289,15 @@
       <c r="I7" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>1621.16</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="9">
@@ -11593,14 +12185,14 @@
       <c r="I2" s="9" t="s">
         <v>1116</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>15000</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="9">
@@ -11630,14 +12222,14 @@
       <c r="I3" s="9" t="s">
         <v>1116</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="9">
@@ -11667,15 +12259,15 @@
       <c r="I4" s="9" t="s">
         <v>1119</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>16830.9</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="9">
@@ -11705,15 +12297,15 @@
       <c r="I5" s="9" t="s">
         <v>1119</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>-1830.9</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="9">
@@ -11743,14 +12335,14 @@
       <c r="I6" s="9" t="s">
         <v>1119</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>1621.16</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="9">
@@ -11780,15 +12372,15 @@
       <c r="I7" s="9" t="s">
         <v>1119</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>-209.740000000001</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="9">
@@ -12793,14 +13385,14 @@
       <c r="I2" s="9" t="s">
         <v>1173</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>16000</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="9">
@@ -12830,14 +13422,14 @@
       <c r="I3" s="9" t="s">
         <v>1173</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="9">
@@ -12867,15 +13459,15 @@
       <c r="I4" s="9" t="s">
         <v>1173</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>15833.7</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="9">
@@ -12905,15 +13497,15 @@
       <c r="I5" s="9" t="s">
         <v>1177</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>166.299999999999</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="9">
@@ -12943,14 +13535,14 @@
       <c r="I6" s="9" t="s">
         <v>1179</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>-209.74</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="9">
@@ -12980,15 +13572,15 @@
       <c r="I7" s="9" t="s">
         <v>1179</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>-43.4400000000007</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="9">
@@ -13847,14 +14439,14 @@
       <c r="I2" s="9" t="s">
         <v>1221</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>12000</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="9">
@@ -13884,14 +14476,14 @@
       <c r="I3" s="9" t="s">
         <v>1224</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="9">
@@ -13921,15 +14513,15 @@
       <c r="I4" s="9" t="s">
         <v>1226</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>12316.9</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="9">
@@ -13959,15 +14551,15 @@
       <c r="I5" s="9" t="s">
         <v>1226</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>-316.9</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="9">
@@ -13997,14 +14589,14 @@
       <c r="I6" s="9" t="s">
         <v>1226</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>-43.44</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="9">
@@ -14034,15 +14626,15 @@
       <c r="I7" s="9" t="s">
         <v>1226</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>-360.34</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="9">
@@ -14838,14 +15430,14 @@
       <c r="H2" s="9" t="s">
         <v>1265</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>19000</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="9">
@@ -14872,14 +15464,14 @@
       <c r="H3" s="9" t="s">
         <v>1268</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="9">
@@ -14906,15 +15498,15 @@
       <c r="H4" s="9" t="s">
         <v>1268</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>18188.8</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="9">
@@ -14941,15 +15533,15 @@
       <c r="H5" s="9" t="s">
         <v>1268</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>811.199999999997</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="9">
@@ -14976,14 +15568,14 @@
       <c r="H6" s="9" t="s">
         <v>1272</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>-360.34</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="9">
@@ -15010,15 +15602,15 @@
       <c r="H7" s="9" t="s">
         <v>1274</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>450.859999999997</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9">
@@ -16077,14 +16669,14 @@
       <c r="H2" s="9" t="s">
         <v>1330</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>14000</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="9">
@@ -16111,14 +16703,14 @@
       <c r="H3" s="9" t="s">
         <v>1330</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="9">
@@ -16145,15 +16737,15 @@
       <c r="H4" s="9" t="s">
         <v>1333</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>14634.6</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="9">
@@ -16180,15 +16772,15 @@
       <c r="H5" s="9" t="s">
         <v>1335</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>-634.6</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="9">
@@ -16215,14 +16807,14 @@
       <c r="H6" s="9" t="s">
         <v>1335</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>450.86</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="9">
@@ -16249,15 +16841,15 @@
       <c r="H7" s="9" t="s">
         <v>1338</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>-183.74</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9">
@@ -16848,14 +17440,14 @@
       <c r="H2" s="9" t="s">
         <v>1369</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>9000</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="9">
@@ -16882,14 +17474,14 @@
       <c r="H3" s="9" t="s">
         <v>1369</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="9">
@@ -16916,15 +17508,15 @@
       <c r="H4" s="9" t="s">
         <v>1369</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>9575.9</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="9">
@@ -16951,15 +17543,15 @@
       <c r="H5" s="9" t="s">
         <v>1374</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>-575.9</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="9">
@@ -16986,14 +17578,14 @@
       <c r="H6" s="9" t="s">
         <v>1376</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>-183.74</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="9">
@@ -17020,15 +17612,15 @@
       <c r="H7" s="9" t="s">
         <v>1376</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>-759.64</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9">
@@ -17463,14 +18055,14 @@
       <c r="H2" s="9" t="s">
         <v>1401</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>8000</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="9">
@@ -17497,14 +18089,14 @@
       <c r="H3" s="9" t="s">
         <v>1403</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="9">
@@ -17531,15 +18123,15 @@
       <c r="H4" s="9" t="s">
         <v>1405</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>7234</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="9">
@@ -17566,15 +18158,15 @@
       <c r="H5" s="9" t="s">
         <v>1405</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>766</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="9">
@@ -17601,14 +18193,14 @@
       <c r="H6" s="9" t="s">
         <v>1405</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>-759.64</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="9">
@@ -17635,15 +18227,15 @@
       <c r="H7" s="9" t="s">
         <v>1409</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>6.36000000000001</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9">
@@ -17999,12 +18591,12 @@
       <c r="H2" s="9" t="s">
         <v>1428</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="9">
@@ -18031,16 +18623,16 @@
       <c r="H3" s="9" t="s">
         <v>1431</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>20000</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="9">
@@ -18067,15 +18659,15 @@
       <c r="H4" s="9" t="s">
         <v>1431</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>7157</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="9">
@@ -18102,15 +18694,15 @@
       <c r="H5" s="9" t="s">
         <v>1434</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>12843</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="9">
@@ -18137,14 +18729,14 @@
       <c r="H6" s="9" t="s">
         <v>1434</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>6.36</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="9">
@@ -18171,15 +18763,15 @@
       <c r="H7" s="9" t="s">
         <v>1437</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>12849.36</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9">
@@ -18562,12 +19154,12 @@
       <c r="H2" s="9" t="s">
         <v>1459</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="9">
@@ -18594,14 +19186,14 @@
       <c r="H3" s="9" t="s">
         <v>1459</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="9">
@@ -18628,15 +19220,15 @@
       <c r="H4" s="9" t="s">
         <v>1459</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>13175</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="9">
@@ -18663,15 +19255,15 @@
       <c r="H5" s="9" t="s">
         <v>1463</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>-13175</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="9">
@@ -18698,14 +19290,14 @@
       <c r="H6" s="9" t="s">
         <v>1465</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>12849.36</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="9">
@@ -18732,15 +19324,15 @@
       <c r="H7" s="9" t="s">
         <v>1467</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>-325.639999999999</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9">
@@ -19414,14 +20006,14 @@
       <c r="I2" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>40000</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="10">
@@ -19451,14 +20043,14 @@
       <c r="I3" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="10">
@@ -19488,15 +20080,15 @@
       <c r="I4" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>44038.6</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10">
@@ -19526,15 +20118,15 @@
       <c r="I5" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>-4038.6</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="10">
@@ -19564,14 +20156,14 @@
       <c r="I6" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>-34.54</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="10">
@@ -19601,15 +20193,15 @@
       <c r="I7" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>-4073.14</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="10">
@@ -22232,14 +22824,14 @@
       <c r="H2" s="9" t="s">
         <v>1508</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>28000</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="9">
@@ -22266,14 +22858,14 @@
       <c r="H3" s="9" t="s">
         <v>1511</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="9">
@@ -22300,15 +22892,15 @@
       <c r="H4" s="9" t="s">
         <v>1511</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>11243</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="9">
@@ -22335,15 +22927,15 @@
       <c r="H5" s="9" t="s">
         <v>1511</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>16757</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="9">
@@ -22370,14 +22962,14 @@
       <c r="H6" s="9" t="s">
         <v>1511</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>-325.64</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="9">
@@ -22404,15 +22996,15 @@
       <c r="H7" s="9" t="s">
         <v>1516</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>16431.36</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9">
@@ -23032,12 +23624,12 @@
       <c r="H2" s="9" t="s">
         <v>1552</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="9">
@@ -23064,14 +23656,14 @@
       <c r="H3" s="9" t="s">
         <v>1554</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="9">
@@ -23098,15 +23690,15 @@
       <c r="H4" s="9" t="s">
         <v>1554</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>16364.9</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="9">
@@ -23133,15 +23725,15 @@
       <c r="H5" s="9" t="s">
         <v>1557</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>-16364.9</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="9">
@@ -23168,14 +23760,14 @@
       <c r="H6" s="9" t="s">
         <v>1559</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>16431.36</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="9">
@@ -23202,15 +23794,15 @@
       <c r="H7" s="9" t="s">
         <v>1561</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>66.4600000000009</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9">
@@ -24216,14 +24808,14 @@
       <c r="H2" s="9" t="s">
         <v>1616</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>28000</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="9">
@@ -24250,14 +24842,14 @@
       <c r="H3" s="9" t="s">
         <v>1614</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="9">
@@ -24284,15 +24876,15 @@
       <c r="H4" s="9" t="s">
         <v>1619</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>28178.6</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="9">
@@ -24319,15 +24911,15 @@
       <c r="H5" s="9" t="s">
         <v>1621</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>-178.599999999999</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="9">
@@ -24354,14 +24946,14 @@
       <c r="H6" s="9" t="s">
         <v>1619</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>66.46</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="9">
@@ -24388,15 +24980,15 @@
       <c r="H7" s="9" t="s">
         <v>1624</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>-112.139999999999</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="9">
@@ -26183,12 +26775,12 @@
       <c r="H2" s="8" t="s">
         <v>1717</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="8">
@@ -26215,16 +26807,16 @@
       <c r="H3" s="8" t="s">
         <v>1715</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>20000</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="8">
@@ -26251,15 +26843,15 @@
       <c r="H4" s="8" t="s">
         <v>1715</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>20829</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="8">
@@ -26286,15 +26878,15 @@
       <c r="H5" s="8" t="s">
         <v>1721</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>-829</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="8">
@@ -26321,14 +26913,14 @@
       <c r="H6" s="8" t="s">
         <v>1723</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>-112.14</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="8">
@@ -26355,15 +26947,15 @@
       <c r="H7" s="8" t="s">
         <v>1715</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>-941.14</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8">
@@ -27474,14 +28066,14 @@
       <c r="H2" s="8" t="s">
         <v>1780</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>29000</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="8">
@@ -27508,14 +28100,14 @@
       <c r="H3" s="8" t="s">
         <v>1783</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="8">
@@ -27542,15 +28134,15 @@
       <c r="H4" s="8" t="s">
         <v>1785</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>10300</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="8">
@@ -27577,15 +28169,15 @@
       <c r="H5" s="8" t="s">
         <v>1785</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>18700</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="8">
@@ -27612,14 +28204,14 @@
       <c r="H6" s="8" t="s">
         <v>1788</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>-941.14</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="8">
@@ -27646,15 +28238,15 @@
       <c r="H7" s="8" t="s">
         <v>1788</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>17758.86</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="8">
@@ -28247,12 +28839,12 @@
       <c r="H2" s="7" t="s">
         <v>1822</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="7">
@@ -28279,14 +28871,14 @@
       <c r="H3" s="7" t="s">
         <v>1820</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="7">
@@ -28313,15 +28905,15 @@
       <c r="H4" s="7" t="s">
         <v>1825</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>17682.8</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="7">
@@ -28348,15 +28940,15 @@
       <c r="H5" s="7" t="s">
         <v>1827</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>-17682.8</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="7">
@@ -28383,14 +28975,14 @@
       <c r="H6" s="7" t="s">
         <v>1827</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>17758.86</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="7">
@@ -28417,15 +29009,15 @@
       <c r="H7" s="7" t="s">
         <v>1825</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>76.0600000000013</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7">
@@ -29509,12 +30101,12 @@
       <c r="H2" s="7" t="s">
         <v>1888</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="7">
@@ -29541,16 +30133,16 @@
       <c r="H3" s="7" t="s">
         <v>1891</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>20000</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="7">
@@ -29577,15 +30169,15 @@
       <c r="H4" s="7" t="s">
         <v>1893</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>9214.9</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="7">
@@ -29612,15 +30204,15 @@
       <c r="H5" s="7" t="s">
         <v>1888</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>10785.1</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="7">
@@ -29647,14 +30239,14 @@
       <c r="H6" s="7" t="s">
         <v>1896</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>76.06</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="7">
@@ -29681,15 +30273,15 @@
       <c r="H7" s="7" t="s">
         <v>1898</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>10861.16</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7">
@@ -30196,8 +30788,8 @@
   <sheetPr/>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -30206,832 +30798,3935 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1">
+      <c r="A1" s="7">
         <v>45074</v>
       </c>
-      <c r="B1" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1926</v>
       </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
+      <c r="D1" s="7">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7">
         <v>526</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="7">
         <v>526</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>1927</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1">
+      <c r="A2" s="7">
         <v>45073</v>
       </c>
-      <c r="B2" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>1928</v>
       </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="7">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7">
         <v>174</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="7">
         <v>174</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>1929</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1">
+      <c r="A3" s="7">
         <v>45071</v>
       </c>
-      <c r="B3" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>1930</v>
       </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
         <v>300</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="7">
         <v>300</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>1927</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1">
+      <c r="A4" s="7">
         <v>45070</v>
       </c>
-      <c r="B4" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>1931</v>
       </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="7">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7">
         <v>419</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="7">
         <v>419</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>1929</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>10814.9</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="1">
+      <c r="A5" s="7">
         <v>45069</v>
       </c>
-      <c r="B5" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>1932</v>
       </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7">
         <v>120</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="7">
         <v>120</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>1933</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>-10814.9</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="1">
+      <c r="A6" s="7">
         <v>45068</v>
       </c>
-      <c r="B6" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>1934</v>
       </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
         <v>107</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <v>107</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>1935</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>10861.16</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="1">
+      <c r="A7" s="7">
         <v>45067</v>
       </c>
-      <c r="B7" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>1936</v>
       </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7">
         <v>383</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="7">
         <v>383</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>1937</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>46.2600000000002</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1">
+      <c r="A8" s="7">
         <v>45066</v>
       </c>
-      <c r="B8" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>1938</v>
       </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
         <v>521</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="7">
         <v>521</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>1933</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1">
+      <c r="A9" s="7">
         <v>45064</v>
       </c>
-      <c r="B9" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>1939</v>
       </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
         <v>136.9</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="7">
         <v>136.9</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="G9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>1937</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1">
+      <c r="A10" s="7">
         <v>45062</v>
       </c>
-      <c r="B10" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>1940</v>
       </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7">
         <v>347</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="7">
         <v>347</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="G10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>1937</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1">
+      <c r="A11" s="7">
         <v>45061</v>
       </c>
-      <c r="B11" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>1941</v>
       </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7">
         <v>554</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="7">
         <v>554</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>1942</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="1">
+      <c r="A12" s="7">
         <v>45060</v>
       </c>
-      <c r="B12" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>1943</v>
       </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
         <v>488</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="7">
         <v>488</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="G12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>1944</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1">
+      <c r="A13" s="7">
         <v>45058</v>
       </c>
-      <c r="B13" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>1945</v>
       </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="7">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7">
         <v>799</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="7">
         <v>799</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="G13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>1942</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="1">
+      <c r="A14" s="7">
         <v>45057</v>
       </c>
-      <c r="B14" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>1946</v>
       </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7">
         <v>198</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="7">
         <v>198</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="G14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>1947</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="1">
+      <c r="A15" s="7">
         <v>45055</v>
       </c>
-      <c r="B15" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>1948</v>
       </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
         <v>65</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="7">
         <v>65</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="G15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>1944</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="1">
+      <c r="A16" s="7">
         <v>45054</v>
       </c>
-      <c r="B16" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>1949</v>
       </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7">
         <v>280</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="7">
         <v>280</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="G16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>1947</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1">
+      <c r="A17" s="7">
         <v>45053</v>
       </c>
-      <c r="B17" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>1950</v>
       </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="7">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7">
         <v>233</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="7">
         <v>233</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="G17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>1951</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1">
+      <c r="A18" s="7">
         <v>45052</v>
       </c>
-      <c r="B18" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>1952</v>
       </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7">
         <v>194</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="7">
         <v>194</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="G18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>1953</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1">
+      <c r="A19" s="7">
         <v>45051</v>
       </c>
-      <c r="B19" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>1954</v>
       </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="7">
+        <v>2</v>
+      </c>
+      <c r="E19" s="7">
         <v>493</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="7">
         <v>493</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="G19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>1951</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="1">
+      <c r="A20" s="7">
         <v>45050</v>
       </c>
-      <c r="B20" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>1955</v>
       </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7">
         <v>745</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="7">
         <v>745</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="G20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>1953</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="1">
+      <c r="A21" s="7">
         <v>45049</v>
       </c>
-      <c r="B21" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>1956</v>
       </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
         <v>299</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="7">
         <v>299</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="G21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>1957</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="1">
+      <c r="A22" s="7">
         <v>45048</v>
       </c>
-      <c r="B22" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>1958</v>
       </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7">
         <v>460</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="7">
         <v>460</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="G22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>1959</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="1">
+      <c r="A23" s="7">
         <v>45047</v>
       </c>
-      <c r="B23" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>1960</v>
       </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7">
         <v>398</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="7">
         <v>398</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="G23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>1959</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="1">
+      <c r="A24" s="7">
         <v>45046</v>
       </c>
-      <c r="B24" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>1961</v>
       </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7">
         <v>499</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="7">
         <v>499</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="G24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>1962</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="1">
+      <c r="A25" s="7">
         <v>45045</v>
       </c>
-      <c r="B25" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>1963</v>
       </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
         <v>470</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="7">
         <v>470</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="G25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>1962</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="1">
+      <c r="A26" s="7">
         <v>45044</v>
       </c>
-      <c r="B26" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>1964</v>
       </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
         <v>338</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="7">
         <v>338</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="G26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="1">
+      <c r="A27" s="7">
         <v>45043</v>
       </c>
-      <c r="B27" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>1966</v>
       </c>
-      <c r="D27" s="1">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="7">
+        <v>2</v>
+      </c>
+      <c r="E27" s="7">
         <v>360</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="7">
         <v>360</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="G27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="1">
+      <c r="A28" s="7">
         <v>45042</v>
       </c>
-      <c r="B28" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>1967</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="7">
         <v>5</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="7">
         <v>240</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="7">
         <v>240</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="G28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>1968</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="1">
+      <c r="A29" s="7">
         <v>45041</v>
       </c>
-      <c r="B29" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>1969</v>
       </c>
-      <c r="D29" s="1">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="7">
+        <v>2</v>
+      </c>
+      <c r="E29" s="7">
         <v>298</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="7">
         <v>298</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="G29" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7" t="s">
         <v>1970</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="1">
+      <c r="A30" s="7">
         <v>45040</v>
       </c>
-      <c r="B30" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>1971</v>
       </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7">
         <v>370</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="7">
         <v>370</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="G30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>1970</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="6">
+        <v>45151</v>
+      </c>
+      <c r="B1" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D1" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6">
+        <v>238</v>
+      </c>
+      <c r="F1" s="6">
+        <v>238</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="6">
+        <v>45150</v>
+      </c>
+      <c r="B2" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6">
+        <v>909</v>
+      </c>
+      <c r="F2" s="6">
+        <v>909</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1">
+        <v>28000</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="6">
+        <v>45149</v>
+      </c>
+      <c r="B3" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>117</v>
+      </c>
+      <c r="F3" s="6">
+        <v>117</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>1977</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="6">
+        <v>45148</v>
+      </c>
+      <c r="B4" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>569</v>
+      </c>
+      <c r="F4" s="6">
+        <v>569</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>1973</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="3">
+        <f>SUM(E:E)</f>
+        <v>28773.7</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="6">
+        <v>45147</v>
+      </c>
+      <c r="B5" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1550</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1550</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>1977</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="4">
+        <f>M2+M3-O3-M4</f>
+        <v>-773.700000000001</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="6">
+        <v>45146</v>
+      </c>
+      <c r="B6" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>100</v>
+      </c>
+      <c r="F6" s="6">
+        <v>100</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2">
+        <v>46.26</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="6">
+        <v>45145</v>
+      </c>
+      <c r="B7" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>156</v>
+      </c>
+      <c r="F7" s="6">
+        <v>156</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>1973</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="5">
+        <f>M5+M6</f>
+        <v>-727.440000000001</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6">
+        <v>45144</v>
+      </c>
+      <c r="B8" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>694</v>
+      </c>
+      <c r="F8" s="6">
+        <v>694</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6">
+        <v>45143</v>
+      </c>
+      <c r="B9" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>985</v>
+      </c>
+      <c r="F9" s="6">
+        <v>985</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6">
+        <v>45142</v>
+      </c>
+      <c r="B10" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6">
+        <v>680</v>
+      </c>
+      <c r="F10" s="6">
+        <v>680</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6">
+        <v>45141</v>
+      </c>
+      <c r="B11" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>879</v>
+      </c>
+      <c r="F11" s="6">
+        <v>879</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6">
+        <v>45139</v>
+      </c>
+      <c r="B12" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>748</v>
+      </c>
+      <c r="F12" s="6">
+        <v>748</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6">
+        <v>45138</v>
+      </c>
+      <c r="B13" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>244</v>
+      </c>
+      <c r="F13" s="6">
+        <v>244</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6">
+        <v>45137</v>
+      </c>
+      <c r="B14" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>618</v>
+      </c>
+      <c r="F14" s="6">
+        <v>618</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6">
+        <v>45136</v>
+      </c>
+      <c r="B15" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>469</v>
+      </c>
+      <c r="F15" s="6">
+        <v>469</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6">
+        <v>45135</v>
+      </c>
+      <c r="B16" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>200</v>
+      </c>
+      <c r="F16" s="6">
+        <v>200</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6">
+        <v>45132</v>
+      </c>
+      <c r="B17" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>689</v>
+      </c>
+      <c r="F17" s="6">
+        <v>689</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6">
+        <v>45129</v>
+      </c>
+      <c r="B18" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2</v>
+      </c>
+      <c r="E18" s="6">
+        <v>558</v>
+      </c>
+      <c r="F18" s="6">
+        <v>558</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6">
+        <v>45128</v>
+      </c>
+      <c r="B19" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2</v>
+      </c>
+      <c r="E19" s="6">
+        <v>131</v>
+      </c>
+      <c r="F19" s="6">
+        <v>131</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6">
+        <v>45127</v>
+      </c>
+      <c r="B20" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1208</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1208</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>45126</v>
+      </c>
+      <c r="B21" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D21" s="6">
+        <v>2</v>
+      </c>
+      <c r="E21" s="6">
+        <v>328</v>
+      </c>
+      <c r="F21" s="6">
+        <v>328</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
+        <v>45124</v>
+      </c>
+      <c r="B22" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6">
+        <v>588</v>
+      </c>
+      <c r="F22" s="6">
+        <v>588</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6">
+        <v>45123</v>
+      </c>
+      <c r="B23" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6">
+        <v>476</v>
+      </c>
+      <c r="F23" s="6">
+        <v>476</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6">
+        <v>45122</v>
+      </c>
+      <c r="B24" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>395</v>
+      </c>
+      <c r="F24" s="6">
+        <v>395</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="6">
+        <v>45121</v>
+      </c>
+      <c r="B25" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6">
+        <v>445</v>
+      </c>
+      <c r="F25" s="6">
+        <v>445</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6">
+        <v>45120</v>
+      </c>
+      <c r="B26" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D26" s="6">
+        <v>2</v>
+      </c>
+      <c r="E26" s="6">
+        <v>868</v>
+      </c>
+      <c r="F26" s="6">
+        <v>868</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="6">
+        <v>45119</v>
+      </c>
+      <c r="B27" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2</v>
+      </c>
+      <c r="E27" s="6">
+        <v>306</v>
+      </c>
+      <c r="F27" s="6">
+        <v>306</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="6">
+        <v>45118</v>
+      </c>
+      <c r="B28" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6">
+        <v>357</v>
+      </c>
+      <c r="F28" s="6">
+        <v>357</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="6">
+        <v>45117</v>
+      </c>
+      <c r="B29" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D29" s="6">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6">
+        <v>337</v>
+      </c>
+      <c r="F29" s="6">
+        <v>337</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="6">
+        <v>45116</v>
+      </c>
+      <c r="B30" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D30" s="6">
+        <v>2</v>
+      </c>
+      <c r="E30" s="6">
+        <v>869</v>
+      </c>
+      <c r="F30" s="6">
+        <v>869</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="6">
+        <v>45115</v>
+      </c>
+      <c r="B31" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D31" s="6">
+        <v>2</v>
+      </c>
+      <c r="E31" s="6">
+        <v>373</v>
+      </c>
+      <c r="F31" s="6">
+        <v>373</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="6">
+        <v>45114</v>
+      </c>
+      <c r="B32" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D32" s="6">
+        <v>2</v>
+      </c>
+      <c r="E32" s="6">
+        <v>915</v>
+      </c>
+      <c r="F32" s="6">
+        <v>915</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="6">
+        <v>45113</v>
+      </c>
+      <c r="B33" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D33" s="6">
+        <v>2</v>
+      </c>
+      <c r="E33" s="6">
+        <v>229</v>
+      </c>
+      <c r="F33" s="6">
+        <v>229</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="6">
+        <v>45111</v>
+      </c>
+      <c r="B34" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D34" s="6">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6">
+        <v>260</v>
+      </c>
+      <c r="F34" s="6">
+        <v>260</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="6">
+        <v>45108</v>
+      </c>
+      <c r="B35" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D35" s="6">
+        <v>2</v>
+      </c>
+      <c r="E35" s="6">
+        <v>171</v>
+      </c>
+      <c r="F35" s="6">
+        <v>171</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="6">
+        <v>45107</v>
+      </c>
+      <c r="B36" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D36" s="6">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6">
+        <v>578</v>
+      </c>
+      <c r="F36" s="6">
+        <v>578</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="6">
+        <v>45105</v>
+      </c>
+      <c r="B37" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D37" s="6">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6">
+        <v>278</v>
+      </c>
+      <c r="F37" s="6">
+        <v>278</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="6">
+        <v>45104</v>
+      </c>
+      <c r="B38" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D38" s="6">
+        <v>2</v>
+      </c>
+      <c r="E38" s="6">
+        <v>303</v>
+      </c>
+      <c r="F38" s="6">
+        <v>303</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="6">
+        <v>45102</v>
+      </c>
+      <c r="B39" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D39" s="6">
+        <v>2</v>
+      </c>
+      <c r="E39" s="6">
+        <v>509</v>
+      </c>
+      <c r="F39" s="6">
+        <v>509</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="6">
+        <v>45100</v>
+      </c>
+      <c r="B40" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6">
+        <v>720</v>
+      </c>
+      <c r="F40" s="6">
+        <v>720</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="6">
+        <v>45099</v>
+      </c>
+      <c r="B41" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D41" s="6">
+        <v>2</v>
+      </c>
+      <c r="E41" s="6">
+        <v>238</v>
+      </c>
+      <c r="F41" s="6">
+        <v>238</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="6">
+        <v>45098</v>
+      </c>
+      <c r="B42" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D42" s="6">
+        <v>2</v>
+      </c>
+      <c r="E42" s="6">
+        <v>429.7</v>
+      </c>
+      <c r="F42" s="6">
+        <v>429.7</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="6">
+        <v>45097</v>
+      </c>
+      <c r="B43" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6">
+        <v>45</v>
+      </c>
+      <c r="F43" s="6">
+        <v>45</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="6">
+        <v>45096</v>
+      </c>
+      <c r="B44" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D44" s="6">
+        <v>2</v>
+      </c>
+      <c r="E44" s="6">
+        <v>397</v>
+      </c>
+      <c r="F44" s="6">
+        <v>397</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="6">
+        <v>45095</v>
+      </c>
+      <c r="B45" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D45" s="6">
+        <v>2</v>
+      </c>
+      <c r="E45" s="6">
+        <v>306</v>
+      </c>
+      <c r="F45" s="6">
+        <v>306</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="6">
+        <v>45093</v>
+      </c>
+      <c r="B46" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D46" s="6">
+        <v>2</v>
+      </c>
+      <c r="E46" s="6">
+        <v>130</v>
+      </c>
+      <c r="F46" s="6">
+        <v>130</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="6">
+        <v>45092</v>
+      </c>
+      <c r="B47" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D47" s="6">
+        <v>2</v>
+      </c>
+      <c r="E47" s="6">
+        <v>309</v>
+      </c>
+      <c r="F47" s="6">
+        <v>309</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="6">
+        <v>45088</v>
+      </c>
+      <c r="B48" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D48" s="6">
+        <v>2</v>
+      </c>
+      <c r="E48" s="6">
+        <v>762</v>
+      </c>
+      <c r="F48" s="6">
+        <v>762</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="6">
+        <v>45087</v>
+      </c>
+      <c r="B49" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D49" s="6">
+        <v>2</v>
+      </c>
+      <c r="E49" s="6">
+        <v>282</v>
+      </c>
+      <c r="F49" s="6">
+        <v>282</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="6">
+        <v>45085</v>
+      </c>
+      <c r="B50" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D50" s="6">
+        <v>2</v>
+      </c>
+      <c r="E50" s="6">
+        <v>528</v>
+      </c>
+      <c r="F50" s="6">
+        <v>528</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="6">
+        <v>45084</v>
+      </c>
+      <c r="B51" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D51" s="6">
+        <v>3</v>
+      </c>
+      <c r="E51" s="6">
+        <v>375</v>
+      </c>
+      <c r="F51" s="6">
+        <v>375</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="6">
+        <v>45083</v>
+      </c>
+      <c r="B52" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D52" s="6">
+        <v>2</v>
+      </c>
+      <c r="E52" s="6">
+        <v>457</v>
+      </c>
+      <c r="F52" s="6">
+        <v>457</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="6">
+        <v>45081</v>
+      </c>
+      <c r="B53" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D53" s="6">
+        <v>2</v>
+      </c>
+      <c r="E53" s="6">
+        <v>478</v>
+      </c>
+      <c r="F53" s="6">
+        <v>478</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="6">
+        <v>45080</v>
+      </c>
+      <c r="B54" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D54" s="6">
+        <v>4</v>
+      </c>
+      <c r="E54" s="6">
+        <v>352</v>
+      </c>
+      <c r="F54" s="6">
+        <v>352</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="6">
+        <v>45079</v>
+      </c>
+      <c r="B55" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D55" s="6">
+        <v>1</v>
+      </c>
+      <c r="E55" s="6">
+        <v>290</v>
+      </c>
+      <c r="F55" s="6">
+        <v>290</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="6">
+        <v>45078</v>
+      </c>
+      <c r="B56" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D56" s="6">
+        <v>2</v>
+      </c>
+      <c r="E56" s="6">
+        <v>580</v>
+      </c>
+      <c r="F56" s="6">
+        <v>580</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="6">
+        <v>45077</v>
+      </c>
+      <c r="B57" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D57" s="6">
+        <v>1</v>
+      </c>
+      <c r="E57" s="6">
+        <v>768</v>
+      </c>
+      <c r="F57" s="6">
+        <v>768</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="6">
+        <v>45076</v>
+      </c>
+      <c r="B58" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D58" s="6">
+        <v>1</v>
+      </c>
+      <c r="E58" s="6">
+        <v>450</v>
+      </c>
+      <c r="F58" s="6">
+        <v>450</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="6">
+        <v>45075</v>
+      </c>
+      <c r="B59" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D59" s="6">
+        <v>1</v>
+      </c>
+      <c r="E59" s="6">
+        <v>550</v>
+      </c>
+      <c r="F59" s="6">
+        <v>550</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="6">
+        <v>45211</v>
+      </c>
+      <c r="B1" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D1" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6">
+        <v>316</v>
+      </c>
+      <c r="F1" s="6">
+        <v>316</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="6">
+        <v>45210</v>
+      </c>
+      <c r="B2" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6">
+        <v>275</v>
+      </c>
+      <c r="F2" s="6">
+        <v>275</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>2057</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1">
+        <v>23000</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="6">
+        <v>45209</v>
+      </c>
+      <c r="B3" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>964</v>
+      </c>
+      <c r="F3" s="6">
+        <v>964</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>2057</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="6">
+        <v>45207</v>
+      </c>
+      <c r="B4" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>33</v>
+      </c>
+      <c r="F4" s="6">
+        <v>33</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>2060</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="3">
+        <f>SUM(E:E)</f>
+        <v>23853.8</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="6">
+        <v>45206</v>
+      </c>
+      <c r="B5" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>219</v>
+      </c>
+      <c r="F5" s="6">
+        <v>219</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>2055</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="4">
+        <f>M2+M3-O3-M4</f>
+        <v>-853.799999999999</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="6">
+        <v>45205</v>
+      </c>
+      <c r="B6" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>145</v>
+      </c>
+      <c r="F6" s="6">
+        <v>145</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>2063</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2">
+        <v>-727.44</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="6">
+        <v>45204</v>
+      </c>
+      <c r="B7" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>365</v>
+      </c>
+      <c r="F7" s="6">
+        <v>365</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>2063</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="5">
+        <f>M5+M6</f>
+        <v>-1581.24</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6">
+        <v>45202</v>
+      </c>
+      <c r="B8" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>237</v>
+      </c>
+      <c r="F8" s="6">
+        <v>237</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6">
+        <v>45201</v>
+      </c>
+      <c r="B9" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>223</v>
+      </c>
+      <c r="F9" s="6">
+        <v>223</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6">
+        <v>45200</v>
+      </c>
+      <c r="B10" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>283</v>
+      </c>
+      <c r="F10" s="6">
+        <v>283</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6">
+        <v>45199</v>
+      </c>
+      <c r="B11" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>89.9</v>
+      </c>
+      <c r="F11" s="6">
+        <v>89.9</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6">
+        <v>45198</v>
+      </c>
+      <c r="B12" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1039</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1039</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6">
+        <v>45197</v>
+      </c>
+      <c r="B13" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>122</v>
+      </c>
+      <c r="F13" s="6">
+        <v>122</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6">
+        <v>45196</v>
+      </c>
+      <c r="B14" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>468</v>
+      </c>
+      <c r="F14" s="6">
+        <v>468</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6">
+        <v>45195</v>
+      </c>
+      <c r="B15" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>159</v>
+      </c>
+      <c r="F15" s="6">
+        <v>159</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6">
+        <v>45193</v>
+      </c>
+      <c r="B16" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>689</v>
+      </c>
+      <c r="F16" s="6">
+        <v>689</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6">
+        <v>45192</v>
+      </c>
+      <c r="B17" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>633</v>
+      </c>
+      <c r="F17" s="6">
+        <v>633</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6">
+        <v>45191</v>
+      </c>
+      <c r="B18" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2</v>
+      </c>
+      <c r="E18" s="6">
+        <v>687</v>
+      </c>
+      <c r="F18" s="6">
+        <v>687</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6">
+        <v>45190</v>
+      </c>
+      <c r="B19" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2</v>
+      </c>
+      <c r="E19" s="6">
+        <v>447</v>
+      </c>
+      <c r="F19" s="6">
+        <v>447</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6">
+        <v>45189</v>
+      </c>
+      <c r="B20" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <v>198</v>
+      </c>
+      <c r="F20" s="6">
+        <v>198</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>45188</v>
+      </c>
+      <c r="B21" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D21" s="6">
+        <v>2</v>
+      </c>
+      <c r="E21" s="6">
+        <v>208</v>
+      </c>
+      <c r="F21" s="6">
+        <v>208</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
+        <v>45187</v>
+      </c>
+      <c r="B22" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6">
+        <v>212</v>
+      </c>
+      <c r="F22" s="6">
+        <v>212</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6">
+        <v>45186</v>
+      </c>
+      <c r="B23" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6">
+        <v>768</v>
+      </c>
+      <c r="F23" s="6">
+        <v>768</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6">
+        <v>45185</v>
+      </c>
+      <c r="B24" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>2091</v>
+      </c>
+      <c r="D24" s="6">
+        <v>2</v>
+      </c>
+      <c r="E24" s="6">
+        <v>258</v>
+      </c>
+      <c r="F24" s="6">
+        <v>258</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="6">
+        <v>45184</v>
+      </c>
+      <c r="B25" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>2092</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6">
+        <v>128</v>
+      </c>
+      <c r="F25" s="6">
+        <v>128</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6">
+        <v>45183</v>
+      </c>
+      <c r="B26" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6">
+        <v>139</v>
+      </c>
+      <c r="F26" s="6">
+        <v>139</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="6">
+        <v>45182</v>
+      </c>
+      <c r="B27" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1248</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1248</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="6">
+        <v>45181</v>
+      </c>
+      <c r="B28" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>2095</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6">
+        <v>286</v>
+      </c>
+      <c r="F28" s="6">
+        <v>286</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="6">
+        <v>45180</v>
+      </c>
+      <c r="B29" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D29" s="6">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6">
+        <v>451</v>
+      </c>
+      <c r="F29" s="6">
+        <v>451</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="6">
+        <v>45179</v>
+      </c>
+      <c r="B30" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>2098</v>
+      </c>
+      <c r="D30" s="6">
+        <v>2</v>
+      </c>
+      <c r="E30" s="6">
+        <v>899</v>
+      </c>
+      <c r="F30" s="6">
+        <v>899</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="6">
+        <v>45178</v>
+      </c>
+      <c r="B31" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>2099</v>
+      </c>
+      <c r="D31" s="6">
+        <v>2</v>
+      </c>
+      <c r="E31" s="6">
+        <v>388</v>
+      </c>
+      <c r="F31" s="6">
+        <v>388</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="6">
+        <v>45177</v>
+      </c>
+      <c r="B32" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>2100</v>
+      </c>
+      <c r="D32" s="6">
+        <v>2</v>
+      </c>
+      <c r="E32" s="6">
+        <v>673</v>
+      </c>
+      <c r="F32" s="6">
+        <v>673</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="6">
+        <v>45176</v>
+      </c>
+      <c r="B33" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D33" s="6">
+        <v>2</v>
+      </c>
+      <c r="E33" s="6">
+        <v>371</v>
+      </c>
+      <c r="F33" s="6">
+        <v>371</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="6">
+        <v>45175</v>
+      </c>
+      <c r="B34" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D34" s="6">
+        <v>2</v>
+      </c>
+      <c r="E34" s="6">
+        <v>959.9</v>
+      </c>
+      <c r="F34" s="6">
+        <v>959.9</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="6">
+        <v>45174</v>
+      </c>
+      <c r="B35" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>2103</v>
+      </c>
+      <c r="D35" s="6">
+        <v>2</v>
+      </c>
+      <c r="E35" s="6">
+        <v>567</v>
+      </c>
+      <c r="F35" s="6">
+        <v>567</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="6">
+        <v>45173</v>
+      </c>
+      <c r="B36" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D36" s="6">
+        <v>2</v>
+      </c>
+      <c r="E36" s="6">
+        <v>809</v>
+      </c>
+      <c r="F36" s="6">
+        <v>809</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="6">
+        <v>45172</v>
+      </c>
+      <c r="B37" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D37" s="6">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6">
+        <v>596</v>
+      </c>
+      <c r="F37" s="6">
+        <v>596</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="6">
+        <v>45171</v>
+      </c>
+      <c r="B38" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D38" s="6">
+        <v>2</v>
+      </c>
+      <c r="E38" s="6">
+        <v>910</v>
+      </c>
+      <c r="F38" s="6">
+        <v>910</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="6">
+        <v>45170</v>
+      </c>
+      <c r="B39" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D39" s="6">
+        <v>2</v>
+      </c>
+      <c r="E39" s="6">
+        <v>228</v>
+      </c>
+      <c r="F39" s="6">
+        <v>228</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="6">
+        <v>45169</v>
+      </c>
+      <c r="B40" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D40" s="6">
+        <v>2</v>
+      </c>
+      <c r="E40" s="6">
+        <v>184</v>
+      </c>
+      <c r="F40" s="6">
+        <v>184</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="6">
+        <v>45168</v>
+      </c>
+      <c r="B41" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D41" s="6">
+        <v>2</v>
+      </c>
+      <c r="E41" s="6">
+        <v>78</v>
+      </c>
+      <c r="F41" s="6">
+        <v>78</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="6">
+        <v>45167</v>
+      </c>
+      <c r="B42" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D42" s="6">
+        <v>2</v>
+      </c>
+      <c r="E42" s="6">
+        <v>656</v>
+      </c>
+      <c r="F42" s="6">
+        <v>656</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="6">
+        <v>45166</v>
+      </c>
+      <c r="B43" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>2113</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6">
+        <v>33</v>
+      </c>
+      <c r="F43" s="6">
+        <v>33</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="6">
+        <v>45165</v>
+      </c>
+      <c r="B44" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D44" s="6">
+        <v>2</v>
+      </c>
+      <c r="E44" s="6">
+        <v>705</v>
+      </c>
+      <c r="F44" s="6">
+        <v>705</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="6">
+        <v>45164</v>
+      </c>
+      <c r="B45" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D45" s="6">
+        <v>2</v>
+      </c>
+      <c r="E45" s="6">
+        <v>183</v>
+      </c>
+      <c r="F45" s="6">
+        <v>183</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="6">
+        <v>45163</v>
+      </c>
+      <c r="B46" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>2118</v>
+      </c>
+      <c r="D46" s="6">
+        <v>2</v>
+      </c>
+      <c r="E46" s="6">
+        <v>649</v>
+      </c>
+      <c r="F46" s="6">
+        <v>649</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="6">
+        <v>45162</v>
+      </c>
+      <c r="B47" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D47" s="6">
+        <v>2</v>
+      </c>
+      <c r="E47" s="6">
+        <v>344</v>
+      </c>
+      <c r="F47" s="6">
+        <v>344</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="6">
+        <v>45161</v>
+      </c>
+      <c r="B48" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D48" s="6">
+        <v>2</v>
+      </c>
+      <c r="E48" s="6">
+        <v>115</v>
+      </c>
+      <c r="F48" s="6">
+        <v>115</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="6">
+        <v>45160</v>
+      </c>
+      <c r="B49" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D49" s="6">
+        <v>2</v>
+      </c>
+      <c r="E49" s="6">
+        <v>670</v>
+      </c>
+      <c r="F49" s="6">
+        <v>670</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="6">
+        <v>45159</v>
+      </c>
+      <c r="B50" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D50" s="6">
+        <v>2</v>
+      </c>
+      <c r="E50" s="6">
+        <v>357</v>
+      </c>
+      <c r="F50" s="6">
+        <v>357</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="6">
+        <v>45158</v>
+      </c>
+      <c r="B51" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D51" s="6">
+        <v>2</v>
+      </c>
+      <c r="E51" s="6">
+        <v>282</v>
+      </c>
+      <c r="F51" s="6">
+        <v>282</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="6">
+        <v>45157</v>
+      </c>
+      <c r="B52" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D52" s="6">
+        <v>2</v>
+      </c>
+      <c r="E52" s="6">
+        <v>559</v>
+      </c>
+      <c r="F52" s="6">
+        <v>559</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="6">
+        <v>45155</v>
+      </c>
+      <c r="B53" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D53" s="6">
+        <v>2</v>
+      </c>
+      <c r="E53" s="6">
+        <v>278</v>
+      </c>
+      <c r="F53" s="6">
+        <v>278</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="6">
+        <v>45153</v>
+      </c>
+      <c r="B54" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D54" s="6">
+        <v>2</v>
+      </c>
+      <c r="E54" s="6">
+        <v>897</v>
+      </c>
+      <c r="F54" s="6">
+        <v>897</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="6">
+        <v>45152</v>
+      </c>
+      <c r="B55" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D55" s="6">
+        <v>2</v>
+      </c>
+      <c r="E55" s="6">
+        <v>173</v>
+      </c>
+      <c r="F55" s="6">
+        <v>173</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>2130</v>
       </c>
     </row>
   </sheetData>
@@ -31140,14 +34835,14 @@
       <c r="I3" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>45000</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="3"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="10">
@@ -31177,14 +34872,14 @@
       <c r="I4" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="3"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10">
@@ -31214,15 +34909,15 @@
       <c r="I5" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <f>SUM(E:E)</f>
         <v>36886.8</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="10">
@@ -31252,15 +34947,15 @@
       <c r="I6" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <f>M3+M4-O4-M5</f>
         <v>8113.2</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="10">
@@ -31290,14 +34985,14 @@
       <c r="I7" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <v>-4073.14</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="10">
@@ -31327,15 +35022,15 @@
       <c r="I8" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <f>M6+M7</f>
         <v>4040.06</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="10">
@@ -33428,6 +37123,756 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="13" max="13" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="6">
+        <v>45238</v>
+      </c>
+      <c r="B1" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D1" s="6">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6">
+        <v>803</v>
+      </c>
+      <c r="F1" s="6">
+        <v>803</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="6">
+        <v>45237</v>
+      </c>
+      <c r="B2" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6">
+        <v>177</v>
+      </c>
+      <c r="F2" s="6">
+        <v>177</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>2134</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="6">
+        <v>45236</v>
+      </c>
+      <c r="B3" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>229</v>
+      </c>
+      <c r="F3" s="6">
+        <v>229</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>2136</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1">
+        <v>20000</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="6">
+        <v>45235</v>
+      </c>
+      <c r="B4" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1045</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1045</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>2134</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="3">
+        <f>SUM(E:E)</f>
+        <v>8375.8</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="6">
+        <v>45234</v>
+      </c>
+      <c r="B5" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>359.9</v>
+      </c>
+      <c r="F5" s="6">
+        <v>359.9</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>2139</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="4">
+        <f>M2+M3-O3-M4</f>
+        <v>11624.2</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="6">
+        <v>45233</v>
+      </c>
+      <c r="B6" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>358</v>
+      </c>
+      <c r="F6" s="6">
+        <v>358</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>2141</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2">
+        <v>-1581.24</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="6">
+        <v>45232</v>
+      </c>
+      <c r="B7" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>547</v>
+      </c>
+      <c r="F7" s="6">
+        <v>547</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>2143</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="5">
+        <f>M5+M6</f>
+        <v>10042.96</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6">
+        <v>45230</v>
+      </c>
+      <c r="B8" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>100</v>
+      </c>
+      <c r="F8" s="6">
+        <v>100</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6">
+        <v>45229</v>
+      </c>
+      <c r="B9" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>278</v>
+      </c>
+      <c r="F9" s="6">
+        <v>278</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6">
+        <v>45228</v>
+      </c>
+      <c r="B10" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>561</v>
+      </c>
+      <c r="F10" s="6">
+        <v>561</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6">
+        <v>45227</v>
+      </c>
+      <c r="B11" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>239</v>
+      </c>
+      <c r="F11" s="6">
+        <v>239</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6">
+        <v>45226</v>
+      </c>
+      <c r="B12" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>300</v>
+      </c>
+      <c r="F12" s="6">
+        <v>300</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6">
+        <v>45225</v>
+      </c>
+      <c r="B13" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>554</v>
+      </c>
+      <c r="F13" s="6">
+        <v>554</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6">
+        <v>45224</v>
+      </c>
+      <c r="B14" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>158</v>
+      </c>
+      <c r="F14" s="6">
+        <v>158</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6">
+        <v>45223</v>
+      </c>
+      <c r="B15" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>50</v>
+      </c>
+      <c r="F15" s="6">
+        <v>50</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6">
+        <v>45222</v>
+      </c>
+      <c r="B16" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>296</v>
+      </c>
+      <c r="F16" s="6">
+        <v>296</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6">
+        <v>45221</v>
+      </c>
+      <c r="B17" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>708</v>
+      </c>
+      <c r="F17" s="6">
+        <v>708</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6">
+        <v>45219</v>
+      </c>
+      <c r="B18" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2</v>
+      </c>
+      <c r="E18" s="6">
+        <v>117</v>
+      </c>
+      <c r="F18" s="6">
+        <v>117</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6">
+        <v>45217</v>
+      </c>
+      <c r="B19" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2</v>
+      </c>
+      <c r="E19" s="6">
+        <v>247</v>
+      </c>
+      <c r="F19" s="6">
+        <v>247</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6">
+        <v>45216</v>
+      </c>
+      <c r="B20" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6">
+        <v>185</v>
+      </c>
+      <c r="F20" s="6">
+        <v>185</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>45215</v>
+      </c>
+      <c r="B21" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D21" s="6">
+        <v>2</v>
+      </c>
+      <c r="E21" s="6">
+        <v>207.9</v>
+      </c>
+      <c r="F21" s="6">
+        <v>207.9</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
+        <v>45213</v>
+      </c>
+      <c r="B22" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6">
+        <v>427</v>
+      </c>
+      <c r="F22" s="6">
+        <v>427</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6">
+        <v>45212</v>
+      </c>
+      <c r="B23" s="6">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6">
+        <v>429</v>
+      </c>
+      <c r="F23" s="6">
+        <v>429</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="L2:O7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="13" max="13" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="12:15">
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="12:15">
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="12:15">
+      <c r="L4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="3">
+        <f>SUM(E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="12:15">
+      <c r="L5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="4">
+        <f>M2+M3-O3-M4</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="12:15">
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2">
+        <v>10042.96</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="12:15">
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="5">
+        <f>M5+M6</f>
+        <v>10042.96</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -33500,14 +37945,14 @@
       <c r="I2" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>34000</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="10">
@@ -33537,14 +37982,14 @@
       <c r="I3" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="10">
@@ -33574,15 +38019,15 @@
       <c r="I4" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>38895.9</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10">
@@ -33612,15 +38057,15 @@
       <c r="I5" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>-4895.9</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="10">
@@ -33650,14 +38095,14 @@
       <c r="I6" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>4040.06</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="10">
@@ -33687,15 +38132,15 @@
       <c r="I7" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>-855.840000000002</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="10">
@@ -35975,14 +40420,14 @@
       <c r="I2" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>38000</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="10">
@@ -36012,16 +40457,16 @@
       <c r="I3" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>20000</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <v>10</v>
       </c>
     </row>
@@ -36053,15 +40498,15 @@
       <c r="I4" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>47974.5</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10">
@@ -36091,15 +40536,15 @@
       <c r="I5" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>10015.5</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="10">
@@ -36129,14 +40574,14 @@
       <c r="I6" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>-855.84</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="10">
@@ -36166,15 +40611,15 @@
       <c r="I7" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>9159.66</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="10">
@@ -39270,14 +43715,14 @@
       <c r="I2" s="10" t="s">
         <v>728</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>29000</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="10">
@@ -39307,16 +43752,16 @@
       <c r="I3" s="10" t="s">
         <v>728</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>20000</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <v>10</v>
       </c>
     </row>
@@ -39348,15 +43793,15 @@
       <c r="I4" s="10" t="s">
         <v>728</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>58166.3</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10">
@@ -39386,15 +43831,15 @@
       <c r="I5" s="10" t="s">
         <v>732</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>-9176.3</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="10">
@@ -39424,14 +43869,14 @@
       <c r="I6" s="10" t="s">
         <v>732</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>9159.66</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="10">
@@ -39461,15 +43906,15 @@
       <c r="I7" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>-16.6400000000031</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="10">
@@ -42793,14 +47238,14 @@
       <c r="I2" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>10000</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="10">
@@ -42830,16 +47275,16 @@
       <c r="I3" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>12000</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="10">
@@ -42869,15 +47314,15 @@
       <c r="I4" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>22017.9</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10">
@@ -42907,15 +47352,15 @@
       <c r="I5" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>-17.9000000000015</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="10">
@@ -42945,14 +47390,14 @@
       <c r="I6" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>-16.64</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="10">
@@ -42982,15 +47427,15 @@
       <c r="I7" s="10" t="s">
         <v>903</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>-34.5400000000015</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="10">
@@ -44110,14 +48555,14 @@
       <c r="I2" s="10" t="s">
         <v>959</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>12000</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="10">
@@ -44147,16 +48592,16 @@
       <c r="I3" s="10" t="s">
         <v>962</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>11000</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="10">
@@ -44186,15 +48631,15 @@
       <c r="I4" s="10" t="s">
         <v>962</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>22990.8</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10">
@@ -44224,15 +48669,15 @@
       <c r="I5" s="10" t="s">
         <v>965</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>9.19999999999709</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="10">
@@ -44262,14 +48707,14 @@
       <c r="I6" s="10" t="s">
         <v>965</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>-34.54</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="10">
@@ -44299,15 +48744,15 @@
       <c r="I7" s="10" t="s">
         <v>968</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>-25.3400000000029</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="10">
@@ -45427,14 +49872,14 @@
       <c r="I2" s="10" t="s">
         <v>1026</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>11000</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="10">
@@ -45464,14 +49909,14 @@
       <c r="I3" s="10" t="s">
         <v>1026</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="10">
@@ -45501,15 +49946,15 @@
       <c r="I4" s="10" t="s">
         <v>1029</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <f>SUM(E:E)</f>
         <v>10958.5</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="10">
@@ -45539,15 +49984,15 @@
       <c r="I5" s="10" t="s">
         <v>1029</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>M2+M3-O3-M4</f>
         <v>41.5</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="10">
@@ -45577,14 +50022,14 @@
       <c r="I6" s="10" t="s">
         <v>1032</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>-25.34</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="10">
@@ -45614,15 +50059,15 @@
       <c r="I7" s="10" t="s">
         <v>1032</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f>M5+M6</f>
         <v>16.16</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="10">
